--- a/Subresultados/50tries/xlsx/woGRASP/AGEU450.xlsx
+++ b/Subresultados/50tries/xlsx/woGRASP/AGEU450.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Manuel\Desktop\TFG_IRENE\xlsx\woGRASP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="GACEP" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="AGEU" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,328 +26,310 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
-    <t xml:space="preserve">milestone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F97</t>
+    <t>milestone</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F52</t>
+  </si>
+  <si>
+    <t>F53</t>
+  </si>
+  <si>
+    <t>F54</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F56</t>
+  </si>
+  <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>F58</t>
+  </si>
+  <si>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>F60</t>
+  </si>
+  <si>
+    <t>F61</t>
+  </si>
+  <si>
+    <t>F62</t>
+  </si>
+  <si>
+    <t>F63</t>
+  </si>
+  <si>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F66</t>
+  </si>
+  <si>
+    <t>F67</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>F69</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F71</t>
+  </si>
+  <si>
+    <t>F72</t>
+  </si>
+  <si>
+    <t>F73</t>
+  </si>
+  <si>
+    <t>F74</t>
+  </si>
+  <si>
+    <t>F75</t>
+  </si>
+  <si>
+    <t>F76</t>
+  </si>
+  <si>
+    <t>F77</t>
+  </si>
+  <si>
+    <t>F78</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
+    <t>F82</t>
+  </si>
+  <si>
+    <t>F83</t>
+  </si>
+  <si>
+    <t>F84</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>F86</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>F88</t>
+  </si>
+  <si>
+    <t>F89</t>
+  </si>
+  <si>
+    <t>F90</t>
+  </si>
+  <si>
+    <t>F91</t>
+  </si>
+  <si>
+    <t>F92</t>
+  </si>
+  <si>
+    <t>F93</t>
+  </si>
+  <si>
+    <t>F94</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>F96</t>
+  </si>
+  <si>
+    <t>F97</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -355,7 +341,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -363,4511 +349,4748 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CT15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:CT15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:CT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="2" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.38"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AY1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BA1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="BD1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BE1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BF1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BG1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BH1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BI1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="0" t="s">
+      <c r="BJ1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BK1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="0" t="s">
+      <c r="BL1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="0" t="s">
+      <c r="BM1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="0" t="s">
+      <c r="BN1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="0" t="s">
+      <c r="BO1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="0" t="s">
+      <c r="BP1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="0" t="s">
+      <c r="BQ1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="0" t="s">
+      <c r="BR1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="0" t="s">
+      <c r="BS1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="0" t="s">
+      <c r="BT1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="0" t="s">
+      <c r="BU1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="0" t="s">
+      <c r="BV1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="0" t="s">
+      <c r="BW1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="0" t="s">
+      <c r="BX1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="0" t="s">
+      <c r="BY1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="0" t="s">
+      <c r="BZ1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="0" t="s">
+      <c r="CA1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="0" t="s">
+      <c r="CB1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="0" t="s">
+      <c r="CC1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="0" t="s">
+      <c r="CD1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="0" t="s">
+      <c r="CE1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="0" t="s">
+      <c r="CF1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="0" t="s">
+      <c r="CG1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="0" t="s">
+      <c r="CH1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="0" t="s">
+      <c r="CI1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="0" t="s">
+      <c r="CJ1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="0" t="s">
+      <c r="CK1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="0" t="s">
+      <c r="CL1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="0" t="s">
+      <c r="CM1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="0" t="s">
+      <c r="CN1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="0" t="s">
+      <c r="CO1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="0" t="s">
+      <c r="CP1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="0" t="s">
+      <c r="CQ1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="0" t="s">
+      <c r="CR1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="0" t="s">
+      <c r="CS1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="0" t="s">
+      <c r="CT1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>175763</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>54915.1</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>174467</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>218526</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>223030</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>47473</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>7305.78</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>40134.7</v>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="I2">
+        <v>40134.699999999997</v>
+      </c>
+      <c r="J2">
         <v>228340</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>17364.6</v>
-      </c>
-      <c r="L2" s="0" t="n">
+      <c r="K2">
+        <v>17364.599999999999</v>
+      </c>
+      <c r="L2">
         <v>12311.9</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2">
         <v>52750</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2">
         <v>2334.84</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2">
         <v>45200.5</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2">
         <v>59697.5</v>
       </c>
-      <c r="Q2" s="0" t="n">
-        <v>28327.6</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>9136.3</v>
-      </c>
-      <c r="S2" s="0" t="n">
+      <c r="Q2">
+        <v>28327.599999999999</v>
+      </c>
+      <c r="R2">
+        <v>9136.2999999999993</v>
+      </c>
+      <c r="S2">
         <v>14690.5</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2">
         <v>28311.5</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2">
         <v>76995.7</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2">
         <v>69478.8</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2">
         <v>97675.6</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2">
         <v>23171.1</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2">
         <v>98525.3</v>
       </c>
-      <c r="Z2" s="0" t="n">
-        <v>39972.2</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>9958.2</v>
-      </c>
-      <c r="AB2" s="0" t="n">
-        <v>37476.8</v>
-      </c>
-      <c r="AC2" s="0" t="n">
+      <c r="Z2">
+        <v>39972.199999999997</v>
+      </c>
+      <c r="AA2">
+        <v>9958.2000000000007</v>
+      </c>
+      <c r="AB2">
+        <v>37476.800000000003</v>
+      </c>
+      <c r="AC2">
         <v>38760.1</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AD2">
         <v>54263.3</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AE2">
         <v>130679</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AF2">
         <v>188422</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2">
         <v>75407.3</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AH2">
         <v>41061.4</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AI2">
         <v>54736.9</v>
       </c>
-      <c r="AJ2" s="0" t="n">
-        <v>17830.4</v>
-      </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AJ2">
+        <v>17830.400000000001</v>
+      </c>
+      <c r="AK2">
         <v>130162</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AL2">
         <v>93431.6</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AM2">
         <v>11815.8</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AN2">
         <v>85153.7</v>
       </c>
-      <c r="AO2" s="0" t="n">
+      <c r="AO2">
         <v>241762</v>
       </c>
-      <c r="AP2" s="0" t="n">
+      <c r="AP2">
         <v>919379</v>
       </c>
-      <c r="AQ2" s="0" t="n">
+      <c r="AQ2">
         <v>174919</v>
       </c>
-      <c r="AR2" s="0" t="n">
+      <c r="AR2">
         <v>16177.7</v>
       </c>
-      <c r="AS2" s="0" t="n">
+      <c r="AS2">
         <v>48403.6</v>
       </c>
-      <c r="AT2" s="0" t="n">
+      <c r="AT2">
         <v>708569</v>
       </c>
-      <c r="AU2" s="0" t="n">
+      <c r="AU2">
         <v>21351</v>
       </c>
-      <c r="AV2" s="0" t="n">
+      <c r="AV2">
         <v>595276</v>
       </c>
-      <c r="AW2" s="0" t="n">
+      <c r="AW2">
         <v>697418</v>
       </c>
-      <c r="AX2" s="0" t="n">
+      <c r="AX2">
         <v>522141</v>
       </c>
-      <c r="AY2" s="0" t="n">
-        <v>25283.2</v>
-      </c>
-      <c r="AZ2" s="0" t="n">
+      <c r="AY2">
+        <v>25283.200000000001</v>
+      </c>
+      <c r="AZ2">
         <v>181821</v>
       </c>
-      <c r="BA2" s="0" t="n">
+      <c r="BA2">
         <v>232156</v>
       </c>
-      <c r="BB2" s="0" t="n">
+      <c r="BB2">
         <v>207984</v>
       </c>
-      <c r="BC2" s="0" t="n">
+      <c r="BC2">
         <v>161911</v>
       </c>
-      <c r="BD2" s="0" t="n">
+      <c r="BD2">
         <v>49749.1</v>
       </c>
-      <c r="BE2" s="0" t="n">
-        <v>34139.7</v>
-      </c>
-      <c r="BF2" s="0" t="n">
+      <c r="BE2">
+        <v>34139.699999999997</v>
+      </c>
+      <c r="BF2">
         <v>115508</v>
       </c>
-      <c r="BG2" s="0" t="n">
+      <c r="BG2">
         <v>26766.5</v>
       </c>
-      <c r="BH2" s="0" t="n">
+      <c r="BH2">
         <v>220309</v>
       </c>
-      <c r="BI2" s="0" t="n">
+      <c r="BI2">
         <v>318844</v>
       </c>
-      <c r="BJ2" s="0" t="n">
+      <c r="BJ2">
         <v>148584</v>
       </c>
-      <c r="BK2" s="0" t="n">
+      <c r="BK2">
         <v>153681</v>
       </c>
-      <c r="BL2" s="0" t="n">
+      <c r="BL2">
         <v>156119</v>
       </c>
-      <c r="BM2" s="0" t="n">
+      <c r="BM2">
         <v>470625</v>
       </c>
-      <c r="BN2" s="0" t="n">
+      <c r="BN2">
         <v>404647</v>
       </c>
-      <c r="BO2" s="0" t="n">
+      <c r="BO2">
         <v>159040</v>
       </c>
-      <c r="BP2" s="0" t="n">
+      <c r="BP2">
         <v>252407</v>
       </c>
-      <c r="BQ2" s="0" t="n">
+      <c r="BQ2">
         <v>54844.1</v>
       </c>
-      <c r="BR2" s="0" t="n">
-        <v>74922.4</v>
-      </c>
-      <c r="BS2" s="0" t="n">
+      <c r="BR2">
+        <v>74922.399999999994</v>
+      </c>
+      <c r="BS2">
         <v>352351</v>
       </c>
-      <c r="BT2" s="0" t="n">
+      <c r="BT2">
         <v>192739</v>
       </c>
-      <c r="BU2" s="0" t="n">
-        <v>27804.8</v>
-      </c>
-      <c r="BV2" s="0" t="n">
+      <c r="BU2">
+        <v>27804.799999999999</v>
+      </c>
+      <c r="BV2">
         <v>66738.7</v>
       </c>
-      <c r="BW2" s="0" t="n">
-        <v>74550.4</v>
-      </c>
-      <c r="BX2" s="0" t="n">
+      <c r="BW2">
+        <v>74550.399999999994</v>
+      </c>
+      <c r="BX2">
         <v>139011</v>
       </c>
-      <c r="BY2" s="0" t="n">
+      <c r="BY2">
         <v>174008</v>
       </c>
-      <c r="BZ2" s="0" t="n">
+      <c r="BZ2">
         <v>539262</v>
       </c>
-      <c r="CA2" s="0" t="n">
+      <c r="CA2">
         <v>433066</v>
       </c>
-      <c r="CB2" s="0" t="n">
+      <c r="CB2">
         <v>308697</v>
       </c>
-      <c r="CC2" s="0" t="n">
+      <c r="CC2">
         <v>12625.1</v>
       </c>
-      <c r="CD2" s="0" t="n">
+      <c r="CD2">
         <v>201577</v>
       </c>
-      <c r="CE2" s="0" t="n">
+      <c r="CE2">
         <v>386768</v>
       </c>
-      <c r="CF2" s="0" t="n">
+      <c r="CF2">
         <v>7555.26</v>
       </c>
-      <c r="CG2" s="0" t="n">
+      <c r="CG2">
         <v>178415</v>
       </c>
-      <c r="CH2" s="0" t="n">
+      <c r="CH2">
         <v>445439</v>
       </c>
-      <c r="CI2" s="0" t="n">
+      <c r="CI2">
         <v>4918.22</v>
       </c>
-      <c r="CJ2" s="0" t="n">
+      <c r="CJ2">
         <v>165260</v>
       </c>
-      <c r="CK2" s="0" t="n">
+      <c r="CK2">
         <v>935982</v>
       </c>
-      <c r="CL2" s="0" t="n">
+      <c r="CL2">
         <v>333412</v>
       </c>
-      <c r="CM2" s="0" t="n">
+      <c r="CM2">
         <v>48330.6</v>
       </c>
-      <c r="CN2" s="0" t="n">
+      <c r="CN2">
         <v>772477</v>
       </c>
-      <c r="CO2" s="0" t="n">
+      <c r="CO2">
         <v>161067</v>
       </c>
-      <c r="CP2" s="0" t="n">
+      <c r="CP2">
         <v>592548</v>
       </c>
-      <c r="CQ2" s="0" t="n">
+      <c r="CQ2">
         <v>595531</v>
       </c>
-      <c r="CR2" s="0" t="n">
+      <c r="CR2">
         <v>22433.1</v>
       </c>
-      <c r="CS2" s="0" t="n">
+      <c r="CS2">
         <v>625348</v>
       </c>
-      <c r="CT2" s="0" t="n">
+      <c r="CT2">
         <v>629490</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>178478</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>60578.6</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>177573</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>219697</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>224552</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>52857.5</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>8326.74</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>43814.2</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>229800</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3">
         <v>18874.2</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3">
         <v>13836</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3">
         <v>53252.1</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3">
         <v>2671.04</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3">
         <v>46056.3</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3">
         <v>59956.3</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q3">
         <v>29935.5</v>
       </c>
-      <c r="R3" s="0" t="n">
-        <v>10366.3</v>
-      </c>
-      <c r="S3" s="0" t="n">
+      <c r="R3">
+        <v>10366.299999999999</v>
+      </c>
+      <c r="S3">
         <v>15668.4</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="T3">
         <v>29344</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="U3">
         <v>79399.5</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="V3">
         <v>71845.8</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="W3">
         <v>98907.8</v>
       </c>
-      <c r="X3" s="0" t="n">
-        <v>25551.2</v>
-      </c>
-      <c r="Y3" s="0" t="n">
+      <c r="X3">
+        <v>25551.200000000001</v>
+      </c>
+      <c r="Y3">
         <v>100117</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="Z3">
         <v>42783.7</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AA3">
         <v>11139.7</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AB3">
         <v>40030</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AC3">
         <v>42706.3</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AD3">
         <v>56632.3</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AE3">
         <v>133123</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AF3">
         <v>188469</v>
       </c>
-      <c r="AG3" s="0" t="n">
-        <v>79353.6</v>
-      </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AG3">
+        <v>79353.600000000006</v>
+      </c>
+      <c r="AH3">
         <v>45403.9</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AI3">
         <v>58172.5</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AJ3">
         <v>19222.2</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AK3">
         <v>133833</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AL3">
         <v>96935.4</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AM3">
         <v>13368.2</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AN3">
         <v>89104.1</v>
       </c>
-      <c r="AO3" s="0" t="n">
+      <c r="AO3">
         <v>264786</v>
       </c>
-      <c r="AP3" s="0" t="n">
+      <c r="AP3">
         <v>923561</v>
       </c>
-      <c r="AQ3" s="0" t="n">
+      <c r="AQ3">
         <v>198699</v>
       </c>
-      <c r="AR3" s="0" t="n">
+      <c r="AR3">
         <v>19073.5</v>
       </c>
-      <c r="AS3" s="0" t="n">
+      <c r="AS3">
         <v>55456.1</v>
       </c>
-      <c r="AT3" s="0" t="n">
+      <c r="AT3">
         <v>723949</v>
       </c>
-      <c r="AU3" s="0" t="n">
+      <c r="AU3">
         <v>26472.2</v>
       </c>
-      <c r="AV3" s="0" t="n">
+      <c r="AV3">
         <v>612145</v>
       </c>
-      <c r="AW3" s="0" t="n">
+      <c r="AW3">
         <v>710792</v>
       </c>
-      <c r="AX3" s="0" t="n">
+      <c r="AX3">
         <v>545039</v>
       </c>
-      <c r="AY3" s="0" t="n">
+      <c r="AY3">
         <v>28727.8</v>
       </c>
-      <c r="AZ3" s="0" t="n">
+      <c r="AZ3">
         <v>186137</v>
       </c>
-      <c r="BA3" s="0" t="n">
+      <c r="BA3">
         <v>233396</v>
       </c>
-      <c r="BB3" s="0" t="n">
+      <c r="BB3">
         <v>209716</v>
       </c>
-      <c r="BC3" s="0" t="n">
+      <c r="BC3">
         <v>166621</v>
       </c>
-      <c r="BD3" s="0" t="n">
+      <c r="BD3">
         <v>53490.1</v>
       </c>
-      <c r="BE3" s="0" t="n">
-        <v>39006.4</v>
-      </c>
-      <c r="BF3" s="0" t="n">
+      <c r="BE3">
+        <v>39006.400000000001</v>
+      </c>
+      <c r="BF3">
         <v>120271</v>
       </c>
-      <c r="BG3" s="0" t="n">
+      <c r="BG3">
         <v>29702</v>
       </c>
-      <c r="BH3" s="0" t="n">
+      <c r="BH3">
         <v>232646</v>
       </c>
-      <c r="BI3" s="0" t="n">
+      <c r="BI3">
         <v>326929</v>
       </c>
-      <c r="BJ3" s="0" t="n">
+      <c r="BJ3">
         <v>157142</v>
       </c>
-      <c r="BK3" s="0" t="n">
+      <c r="BK3">
         <v>163652</v>
       </c>
-      <c r="BL3" s="0" t="n">
+      <c r="BL3">
         <v>166972</v>
       </c>
-      <c r="BM3" s="0" t="n">
+      <c r="BM3">
         <v>471927</v>
       </c>
-      <c r="BN3" s="0" t="n">
+      <c r="BN3">
         <v>408323</v>
       </c>
-      <c r="BO3" s="0" t="n">
+      <c r="BO3">
         <v>165622</v>
       </c>
-      <c r="BP3" s="0" t="n">
+      <c r="BP3">
         <v>262988</v>
       </c>
-      <c r="BQ3" s="0" t="n">
+      <c r="BQ3">
         <v>63741</v>
       </c>
-      <c r="BR3" s="0" t="n">
+      <c r="BR3">
         <v>85044.6</v>
       </c>
-      <c r="BS3" s="0" t="n">
+      <c r="BS3">
         <v>372090</v>
       </c>
-      <c r="BT3" s="0" t="n">
+      <c r="BT3">
         <v>204699</v>
       </c>
-      <c r="BU3" s="0" t="n">
-        <v>33959.6</v>
-      </c>
-      <c r="BV3" s="0" t="n">
+      <c r="BU3">
+        <v>33959.599999999999</v>
+      </c>
+      <c r="BV3">
         <v>74475.3</v>
       </c>
-      <c r="BW3" s="0" t="n">
+      <c r="BW3">
         <v>84964.7</v>
       </c>
-      <c r="BX3" s="0" t="n">
+      <c r="BX3">
         <v>152033</v>
       </c>
-      <c r="BY3" s="0" t="n">
+      <c r="BY3">
         <v>185239</v>
       </c>
-      <c r="BZ3" s="0" t="n">
+      <c r="BZ3">
         <v>548566</v>
       </c>
-      <c r="CA3" s="0" t="n">
+      <c r="CA3">
         <v>446742</v>
       </c>
-      <c r="CB3" s="0" t="n">
+      <c r="CB3">
         <v>317798</v>
       </c>
-      <c r="CC3" s="0" t="n">
+      <c r="CC3">
         <v>15012</v>
       </c>
-      <c r="CD3" s="0" t="n">
+      <c r="CD3">
         <v>212665</v>
       </c>
-      <c r="CE3" s="0" t="n">
+      <c r="CE3">
         <v>394314</v>
       </c>
-      <c r="CF3" s="0" t="n">
+      <c r="CF3">
         <v>9255.48</v>
       </c>
-      <c r="CG3" s="0" t="n">
+      <c r="CG3">
         <v>189617</v>
       </c>
-      <c r="CH3" s="0" t="n">
+      <c r="CH3">
         <v>451203</v>
       </c>
-      <c r="CI3" s="0" t="n">
+      <c r="CI3">
         <v>6454.24</v>
       </c>
-      <c r="CJ3" s="0" t="n">
+      <c r="CJ3">
         <v>172946</v>
       </c>
-      <c r="CK3" s="0" t="n">
+      <c r="CK3">
         <v>947080</v>
       </c>
-      <c r="CL3" s="0" t="n">
+      <c r="CL3">
         <v>353107</v>
       </c>
-      <c r="CM3" s="0" t="n">
+      <c r="CM3">
         <v>56447.4</v>
       </c>
-      <c r="CN3" s="0" t="n">
+      <c r="CN3">
         <v>788214</v>
       </c>
-      <c r="CO3" s="0" t="n">
+      <c r="CO3">
         <v>179383</v>
       </c>
-      <c r="CP3" s="0" t="n">
+      <c r="CP3">
         <v>610258</v>
       </c>
-      <c r="CQ3" s="0" t="n">
+      <c r="CQ3">
         <v>616980</v>
       </c>
-      <c r="CR3" s="0" t="n">
+      <c r="CR3">
         <v>26642.2</v>
       </c>
-      <c r="CS3" s="0" t="n">
+      <c r="CS3">
         <v>645977</v>
       </c>
-      <c r="CT3" s="0" t="n">
+      <c r="CT3">
         <v>646342</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>180661</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>64571.5</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>179797</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>219882</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>225046</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>55597.1</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>8840.94</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>46569.4</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>230335</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>19476.2</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4">
         <v>14486.1</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4">
         <v>53559.5</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4">
         <v>2912.36</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4">
         <v>46712.1</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4">
         <v>60152.2</v>
       </c>
-      <c r="Q4" s="0" t="n">
-        <v>30963.6</v>
-      </c>
-      <c r="R4" s="0" t="n">
+      <c r="Q4">
+        <v>30963.599999999999</v>
+      </c>
+      <c r="R4">
         <v>11154.2</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4">
         <v>16021.1</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="T4">
         <v>29682.2</v>
       </c>
-      <c r="U4" s="0" t="n">
-        <v>80717.4</v>
-      </c>
-      <c r="V4" s="0" t="n">
+      <c r="U4">
+        <v>80717.399999999994</v>
+      </c>
+      <c r="V4">
         <v>73070.8</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="W4">
         <v>99439.1</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="X4">
         <v>26429.1</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Y4">
         <v>100769</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="Z4">
         <v>44245.4</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AA4">
         <v>12037</v>
       </c>
-      <c r="AB4" s="0" t="n">
-        <v>41347.8</v>
-      </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AB4">
+        <v>41347.800000000003</v>
+      </c>
+      <c r="AC4">
         <v>43743.8</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AD4">
         <v>58363.3</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AE4">
         <v>134632</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AF4">
         <v>188513</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AG4">
         <v>81395.7</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AH4">
         <v>47579.9</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AI4">
         <v>60281.4</v>
       </c>
-      <c r="AJ4" s="0" t="n">
-        <v>20632.6</v>
-      </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AJ4">
+        <v>20632.599999999999</v>
+      </c>
+      <c r="AK4">
         <v>135301</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AL4">
         <v>98765.8</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AM4">
         <v>14039.6</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AN4">
         <v>90921.5</v>
       </c>
-      <c r="AO4" s="0" t="n">
+      <c r="AO4">
         <v>273414</v>
       </c>
-      <c r="AP4" s="0" t="n">
+      <c r="AP4">
         <v>924875</v>
       </c>
-      <c r="AQ4" s="0" t="n">
+      <c r="AQ4">
         <v>205791</v>
       </c>
-      <c r="AR4" s="0" t="n">
-        <v>20745.4</v>
-      </c>
-      <c r="AS4" s="0" t="n">
+      <c r="AR4">
+        <v>20745.400000000001</v>
+      </c>
+      <c r="AS4">
         <v>61468.9</v>
       </c>
-      <c r="AT4" s="0" t="n">
+      <c r="AT4">
         <v>728984</v>
       </c>
-      <c r="AU4" s="0" t="n">
+      <c r="AU4">
         <v>28728.3</v>
       </c>
-      <c r="AV4" s="0" t="n">
+      <c r="AV4">
         <v>622539</v>
       </c>
-      <c r="AW4" s="0" t="n">
+      <c r="AW4">
         <v>720374</v>
       </c>
-      <c r="AX4" s="0" t="n">
+      <c r="AX4">
         <v>554515</v>
       </c>
-      <c r="AY4" s="0" t="n">
+      <c r="AY4">
         <v>30021.3</v>
       </c>
-      <c r="AZ4" s="0" t="n">
+      <c r="AZ4">
         <v>188155</v>
       </c>
-      <c r="BA4" s="0" t="n">
+      <c r="BA4">
         <v>234010</v>
       </c>
-      <c r="BB4" s="0" t="n">
+      <c r="BB4">
         <v>210983</v>
       </c>
-      <c r="BC4" s="0" t="n">
+      <c r="BC4">
         <v>168123</v>
       </c>
-      <c r="BD4" s="0" t="n">
+      <c r="BD4">
         <v>56331.6</v>
       </c>
-      <c r="BE4" s="0" t="n">
-        <v>40360.2</v>
-      </c>
-      <c r="BF4" s="0" t="n">
+      <c r="BE4">
+        <v>40360.199999999997</v>
+      </c>
+      <c r="BF4">
         <v>122489</v>
       </c>
-      <c r="BG4" s="0" t="n">
+      <c r="BG4">
         <v>31238.2</v>
       </c>
-      <c r="BH4" s="0" t="n">
+      <c r="BH4">
         <v>237185</v>
       </c>
-      <c r="BI4" s="0" t="n">
+      <c r="BI4">
         <v>330564</v>
       </c>
-      <c r="BJ4" s="0" t="n">
+      <c r="BJ4">
         <v>164092</v>
       </c>
-      <c r="BK4" s="0" t="n">
+      <c r="BK4">
         <v>167799</v>
       </c>
-      <c r="BL4" s="0" t="n">
+      <c r="BL4">
         <v>171959</v>
       </c>
-      <c r="BM4" s="0" t="n">
+      <c r="BM4">
         <v>472672</v>
       </c>
-      <c r="BN4" s="0" t="n">
+      <c r="BN4">
         <v>410236</v>
       </c>
-      <c r="BO4" s="0" t="n">
+      <c r="BO4">
         <v>169783</v>
       </c>
-      <c r="BP4" s="0" t="n">
+      <c r="BP4">
         <v>268706</v>
       </c>
-      <c r="BQ4" s="0" t="n">
+      <c r="BQ4">
         <v>66901.5</v>
       </c>
-      <c r="BR4" s="0" t="n">
+      <c r="BR4">
         <v>92989.2</v>
       </c>
-      <c r="BS4" s="0" t="n">
+      <c r="BS4">
         <v>375962</v>
       </c>
-      <c r="BT4" s="0" t="n">
+      <c r="BT4">
         <v>211283</v>
       </c>
-      <c r="BU4" s="0" t="n">
+      <c r="BU4">
         <v>38386.9</v>
       </c>
-      <c r="BV4" s="0" t="n">
-        <v>79128.6</v>
-      </c>
-      <c r="BW4" s="0" t="n">
+      <c r="BV4">
+        <v>79128.600000000006</v>
+      </c>
+      <c r="BW4">
         <v>88540.9</v>
       </c>
-      <c r="BX4" s="0" t="n">
+      <c r="BX4">
         <v>159279</v>
       </c>
-      <c r="BY4" s="0" t="n">
+      <c r="BY4">
         <v>192557</v>
       </c>
-      <c r="BZ4" s="0" t="n">
+      <c r="BZ4">
         <v>555619</v>
       </c>
-      <c r="CA4" s="0" t="n">
+      <c r="CA4">
         <v>453474</v>
       </c>
-      <c r="CB4" s="0" t="n">
+      <c r="CB4">
         <v>322589</v>
       </c>
-      <c r="CC4" s="0" t="n">
+      <c r="CC4">
         <v>16616.8</v>
       </c>
-      <c r="CD4" s="0" t="n">
+      <c r="CD4">
         <v>216990</v>
       </c>
-      <c r="CE4" s="0" t="n">
+      <c r="CE4">
         <v>397437</v>
       </c>
-      <c r="CF4" s="0" t="n">
+      <c r="CF4">
         <v>10469.9</v>
       </c>
-      <c r="CG4" s="0" t="n">
+      <c r="CG4">
         <v>194350</v>
       </c>
-      <c r="CH4" s="0" t="n">
+      <c r="CH4">
         <v>453054</v>
       </c>
-      <c r="CI4" s="0" t="n">
+      <c r="CI4">
         <v>6946.1</v>
       </c>
-      <c r="CJ4" s="0" t="n">
+      <c r="CJ4">
         <v>178177</v>
       </c>
-      <c r="CK4" s="0" t="n">
+      <c r="CK4">
         <v>952393</v>
       </c>
-      <c r="CL4" s="0" t="n">
+      <c r="CL4">
         <v>366009</v>
       </c>
-      <c r="CM4" s="0" t="n">
+      <c r="CM4">
         <v>61790.7</v>
       </c>
-      <c r="CN4" s="0" t="n">
+      <c r="CN4">
         <v>795294</v>
       </c>
-      <c r="CO4" s="0" t="n">
+      <c r="CO4">
         <v>189031</v>
       </c>
-      <c r="CP4" s="0" t="n">
+      <c r="CP4">
         <v>619023</v>
       </c>
-      <c r="CQ4" s="0" t="n">
+      <c r="CQ4">
         <v>628365</v>
       </c>
-      <c r="CR4" s="0" t="n">
+      <c r="CR4">
         <v>29379.3</v>
       </c>
-      <c r="CS4" s="0" t="n">
+      <c r="CS4">
         <v>651991</v>
       </c>
-      <c r="CT4" s="0" t="n">
+      <c r="CT4">
         <v>655418</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>183604</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>68799.9</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5">
+        <v>68799.899999999994</v>
+      </c>
+      <c r="D5">
         <v>181949</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>220778</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>225864</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>59412.6</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>9644</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>50416.7</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>230744</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5">
         <v>20524</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5">
         <v>15636.2</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5">
         <v>54143.4</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5">
         <v>3258.08</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5">
         <v>47195.7</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5">
         <v>60449.4</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5">
         <v>31991.9</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5">
         <v>11968.4</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5">
         <v>17109.2</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="T5">
         <v>30800.9</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="U5">
         <v>82414.2</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="V5">
         <v>75352.7</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="W5">
         <v>100505</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="X5">
         <v>28452</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Y5">
         <v>101588</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="Z5">
         <v>46666.7</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AA5">
         <v>12990</v>
       </c>
-      <c r="AB5" s="0" t="n">
-        <v>43379.2</v>
-      </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AB5">
+        <v>43379.199999999997</v>
+      </c>
+      <c r="AC5">
         <v>46274.2</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AD5">
         <v>60188.2</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AE5">
         <v>136383</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AF5">
         <v>188546</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AG5">
         <v>84069.3</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AH5">
         <v>50027.3</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AI5">
         <v>63060.2</v>
       </c>
-      <c r="AJ5" s="0" t="n">
-        <v>22959.6</v>
-      </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AJ5">
+        <v>22959.599999999999</v>
+      </c>
+      <c r="AK5">
         <v>137458</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AL5">
         <v>101215</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AM5">
         <v>15709.7</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AN5">
         <v>93730.2</v>
       </c>
-      <c r="AO5" s="0" t="n">
+      <c r="AO5">
         <v>294836</v>
       </c>
-      <c r="AP5" s="0" t="n">
+      <c r="AP5">
         <v>928816</v>
       </c>
-      <c r="AQ5" s="0" t="n">
+      <c r="AQ5">
         <v>226977</v>
       </c>
-      <c r="AR5" s="0" t="n">
-        <v>23294.8</v>
-      </c>
-      <c r="AS5" s="0" t="n">
-        <v>70234.9</v>
-      </c>
-      <c r="AT5" s="0" t="n">
+      <c r="AR5">
+        <v>23294.799999999999</v>
+      </c>
+      <c r="AS5">
+        <v>70234.899999999994</v>
+      </c>
+      <c r="AT5">
         <v>738716</v>
       </c>
-      <c r="AU5" s="0" t="n">
-        <v>32978.3</v>
-      </c>
-      <c r="AV5" s="0" t="n">
+      <c r="AU5">
+        <v>32978.300000000003</v>
+      </c>
+      <c r="AV5">
         <v>635507</v>
       </c>
-      <c r="AW5" s="0" t="n">
+      <c r="AW5">
         <v>734170</v>
       </c>
-      <c r="AX5" s="0" t="n">
+      <c r="AX5">
         <v>566399</v>
       </c>
-      <c r="AY5" s="0" t="n">
+      <c r="AY5">
         <v>33873</v>
       </c>
-      <c r="AZ5" s="0" t="n">
+      <c r="AZ5">
         <v>190666</v>
       </c>
-      <c r="BA5" s="0" t="n">
+      <c r="BA5">
         <v>235236</v>
       </c>
-      <c r="BB5" s="0" t="n">
+      <c r="BB5">
         <v>213117</v>
       </c>
-      <c r="BC5" s="0" t="n">
+      <c r="BC5">
         <v>171547</v>
       </c>
-      <c r="BD5" s="0" t="n">
+      <c r="BD5">
         <v>59845.2</v>
       </c>
-      <c r="BE5" s="0" t="n">
+      <c r="BE5">
         <v>43003.9</v>
       </c>
-      <c r="BF5" s="0" t="n">
+      <c r="BF5">
         <v>127565</v>
       </c>
-      <c r="BG5" s="0" t="n">
-        <v>35317.2</v>
-      </c>
-      <c r="BH5" s="0" t="n">
+      <c r="BG5">
+        <v>35317.199999999997</v>
+      </c>
+      <c r="BH5">
         <v>246162</v>
       </c>
-      <c r="BI5" s="0" t="n">
+      <c r="BI5">
         <v>337937</v>
       </c>
-      <c r="BJ5" s="0" t="n">
+      <c r="BJ5">
         <v>170240</v>
       </c>
-      <c r="BK5" s="0" t="n">
+      <c r="BK5">
         <v>176834</v>
       </c>
-      <c r="BL5" s="0" t="n">
+      <c r="BL5">
         <v>179708</v>
       </c>
-      <c r="BM5" s="0" t="n">
+      <c r="BM5">
         <v>473958</v>
       </c>
-      <c r="BN5" s="0" t="n">
+      <c r="BN5">
         <v>413055</v>
       </c>
-      <c r="BO5" s="0" t="n">
+      <c r="BO5">
         <v>177563</v>
       </c>
-      <c r="BP5" s="0" t="n">
+      <c r="BP5">
         <v>276782</v>
       </c>
-      <c r="BQ5" s="0" t="n">
-        <v>74811.2</v>
-      </c>
-      <c r="BR5" s="0" t="n">
+      <c r="BQ5">
+        <v>74811.199999999997</v>
+      </c>
+      <c r="BR5">
         <v>100355</v>
       </c>
-      <c r="BS5" s="0" t="n">
+      <c r="BS5">
         <v>388706</v>
       </c>
-      <c r="BT5" s="0" t="n">
+      <c r="BT5">
         <v>222472</v>
       </c>
-      <c r="BU5" s="0" t="n">
+      <c r="BU5">
         <v>43999.1</v>
       </c>
-      <c r="BV5" s="0" t="n">
+      <c r="BV5">
         <v>86879.8</v>
       </c>
-      <c r="BW5" s="0" t="n">
+      <c r="BW5">
         <v>97055.9</v>
       </c>
-      <c r="BX5" s="0" t="n">
+      <c r="BX5">
         <v>171610</v>
       </c>
-      <c r="BY5" s="0" t="n">
+      <c r="BY5">
         <v>206047</v>
       </c>
-      <c r="BZ5" s="0" t="n">
+      <c r="BZ5">
         <v>562671</v>
       </c>
-      <c r="CA5" s="0" t="n">
+      <c r="CA5">
         <v>463518</v>
       </c>
-      <c r="CB5" s="0" t="n">
+      <c r="CB5">
         <v>330772</v>
       </c>
-      <c r="CC5" s="0" t="n">
-        <v>18771.4</v>
-      </c>
-      <c r="CD5" s="0" t="n">
+      <c r="CC5">
+        <v>18771.400000000001</v>
+      </c>
+      <c r="CD5">
         <v>225469</v>
       </c>
-      <c r="CE5" s="0" t="n">
+      <c r="CE5">
         <v>404536</v>
       </c>
-      <c r="CF5" s="0" t="n">
+      <c r="CF5">
         <v>11993.1</v>
       </c>
-      <c r="CG5" s="0" t="n">
+      <c r="CG5">
         <v>204248</v>
       </c>
-      <c r="CH5" s="0" t="n">
+      <c r="CH5">
         <v>459425</v>
       </c>
-      <c r="CI5" s="0" t="n">
+      <c r="CI5">
         <v>8050.96</v>
       </c>
-      <c r="CJ5" s="0" t="n">
+      <c r="CJ5">
         <v>184605</v>
       </c>
-      <c r="CK5" s="0" t="n">
+      <c r="CK5">
         <v>959643</v>
       </c>
-      <c r="CL5" s="0" t="n">
+      <c r="CL5">
         <v>387155</v>
       </c>
-      <c r="CM5" s="0" t="n">
-        <v>68681.6</v>
-      </c>
-      <c r="CN5" s="0" t="n">
+      <c r="CM5">
+        <v>68681.600000000006</v>
+      </c>
+      <c r="CN5">
         <v>805263</v>
       </c>
-      <c r="CO5" s="0" t="n">
+      <c r="CO5">
         <v>202522</v>
       </c>
-      <c r="CP5" s="0" t="n">
+      <c r="CP5">
         <v>633607</v>
       </c>
-      <c r="CQ5" s="0" t="n">
+      <c r="CQ5">
         <v>648121</v>
       </c>
-      <c r="CR5" s="0" t="n">
+      <c r="CR5">
         <v>32178.1</v>
       </c>
-      <c r="CS5" s="0" t="n">
+      <c r="CS5">
         <v>666832</v>
       </c>
-      <c r="CT5" s="0" t="n">
+      <c r="CT5">
         <v>672409</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>187155</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>75126.1</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6">
+        <v>75126.100000000006</v>
+      </c>
+      <c r="D6">
         <v>184925</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>222120</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>227395</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>66351.2</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>10083.3</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="G6">
+        <v>66351.199999999997</v>
+      </c>
+      <c r="H6">
+        <v>10083.299999999999</v>
+      </c>
+      <c r="I6">
         <v>56298.2</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6">
         <v>231506</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6">
         <v>22176.5</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6">
         <v>16935.5</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6">
         <v>55015</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6">
         <v>3553.16</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6">
         <v>48202</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6">
         <v>60917.5</v>
       </c>
-      <c r="Q6" s="0" t="n">
-        <v>33665.2</v>
-      </c>
-      <c r="R6" s="0" t="n">
+      <c r="Q6">
+        <v>33665.199999999997</v>
+      </c>
+      <c r="R6">
         <v>13462.4</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6">
         <v>18728.5</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="T6">
         <v>32038.3</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="U6">
         <v>84760.5</v>
       </c>
-      <c r="V6" s="0" t="n">
-        <v>78308.4</v>
-      </c>
-      <c r="W6" s="0" t="n">
+      <c r="V6">
+        <v>78308.399999999994</v>
+      </c>
+      <c r="W6">
         <v>101709</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="X6">
         <v>31473.5</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Y6">
         <v>102987</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="Z6">
         <v>50323.3</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AA6">
         <v>14712.2</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AB6">
         <v>47450.8</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AC6">
         <v>49318.2</v>
       </c>
-      <c r="AD6" s="0" t="n">
-        <v>62994.4</v>
-      </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AD6">
+        <v>62994.400000000001</v>
+      </c>
+      <c r="AE6">
         <v>138744</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AF6">
         <v>188596</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AG6">
         <v>88346.8</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AH6">
         <v>54607.3</v>
       </c>
-      <c r="AI6" s="0" t="n">
-        <v>66752.6</v>
-      </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AI6">
+        <v>66752.600000000006</v>
+      </c>
+      <c r="AJ6">
         <v>25441.9</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AK6">
         <v>139950</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AL6">
         <v>104950</v>
       </c>
-      <c r="AM6" s="0" t="n">
-        <v>17729.1</v>
-      </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AM6">
+        <v>17729.099999999999</v>
+      </c>
+      <c r="AN6">
         <v>97781.4</v>
       </c>
-      <c r="AO6" s="0" t="n">
+      <c r="AO6">
         <v>321603</v>
       </c>
-      <c r="AP6" s="0" t="n">
+      <c r="AP6">
         <v>932320</v>
       </c>
-      <c r="AQ6" s="0" t="n">
+      <c r="AQ6">
         <v>251518</v>
       </c>
-      <c r="AR6" s="0" t="n">
+      <c r="AR6">
         <v>27677.1</v>
       </c>
-      <c r="AS6" s="0" t="n">
+      <c r="AS6">
         <v>84652.3</v>
       </c>
-      <c r="AT6" s="0" t="n">
+      <c r="AT6">
         <v>753843</v>
       </c>
-      <c r="AU6" s="0" t="n">
+      <c r="AU6">
         <v>37475.9</v>
       </c>
-      <c r="AV6" s="0" t="n">
+      <c r="AV6">
         <v>656399</v>
       </c>
-      <c r="AW6" s="0" t="n">
+      <c r="AW6">
         <v>749435</v>
       </c>
-      <c r="AX6" s="0" t="n">
+      <c r="AX6">
         <v>585991</v>
       </c>
-      <c r="AY6" s="0" t="n">
+      <c r="AY6">
         <v>38754</v>
       </c>
-      <c r="AZ6" s="0" t="n">
+      <c r="AZ6">
         <v>194545</v>
       </c>
-      <c r="BA6" s="0" t="n">
+      <c r="BA6">
         <v>236566</v>
       </c>
-      <c r="BB6" s="0" t="n">
+      <c r="BB6">
         <v>215543</v>
       </c>
-      <c r="BC6" s="0" t="n">
+      <c r="BC6">
         <v>175712</v>
       </c>
-      <c r="BD6" s="0" t="n">
+      <c r="BD6">
         <v>65719.7</v>
       </c>
-      <c r="BE6" s="0" t="n">
+      <c r="BE6">
         <v>48138.5</v>
       </c>
-      <c r="BF6" s="0" t="n">
+      <c r="BF6">
         <v>132933</v>
       </c>
-      <c r="BG6" s="0" t="n">
-        <v>40325.3</v>
-      </c>
-      <c r="BH6" s="0" t="n">
+      <c r="BG6">
+        <v>40325.300000000003</v>
+      </c>
+      <c r="BH6">
         <v>256775</v>
       </c>
-      <c r="BI6" s="0" t="n">
+      <c r="BI6">
         <v>346818</v>
       </c>
-      <c r="BJ6" s="0" t="n">
+      <c r="BJ6">
         <v>182524</v>
       </c>
-      <c r="BK6" s="0" t="n">
+      <c r="BK6">
         <v>191928</v>
       </c>
-      <c r="BL6" s="0" t="n">
+      <c r="BL6">
         <v>194686</v>
       </c>
-      <c r="BM6" s="0" t="n">
+      <c r="BM6">
         <v>475653</v>
       </c>
-      <c r="BN6" s="0" t="n">
+      <c r="BN6">
         <v>416980</v>
       </c>
-      <c r="BO6" s="0" t="n">
+      <c r="BO6">
         <v>190487</v>
       </c>
-      <c r="BP6" s="0" t="n">
+      <c r="BP6">
         <v>289761</v>
       </c>
-      <c r="BQ6" s="0" t="n">
+      <c r="BQ6">
         <v>84157.5</v>
       </c>
-      <c r="BR6" s="0" t="n">
+      <c r="BR6">
         <v>114900</v>
       </c>
-      <c r="BS6" s="0" t="n">
+      <c r="BS6">
         <v>406681</v>
       </c>
-      <c r="BT6" s="0" t="n">
+      <c r="BT6">
         <v>239508</v>
       </c>
-      <c r="BU6" s="0" t="n">
+      <c r="BU6">
         <v>53413.4</v>
       </c>
-      <c r="BV6" s="0" t="n">
+      <c r="BV6">
         <v>100500</v>
       </c>
-      <c r="BW6" s="0" t="n">
+      <c r="BW6">
         <v>112091</v>
       </c>
-      <c r="BX6" s="0" t="n">
+      <c r="BX6">
         <v>189369</v>
       </c>
-      <c r="BY6" s="0" t="n">
+      <c r="BY6">
         <v>224680</v>
       </c>
-      <c r="BZ6" s="0" t="n">
+      <c r="BZ6">
         <v>575534</v>
       </c>
-      <c r="CA6" s="0" t="n">
+      <c r="CA6">
         <v>480366</v>
       </c>
-      <c r="CB6" s="0" t="n">
+      <c r="CB6">
         <v>342087</v>
       </c>
-      <c r="CC6" s="0" t="n">
+      <c r="CC6">
         <v>23333.1</v>
       </c>
-      <c r="CD6" s="0" t="n">
+      <c r="CD6">
         <v>238296</v>
       </c>
-      <c r="CE6" s="0" t="n">
+      <c r="CE6">
         <v>413935</v>
       </c>
-      <c r="CF6" s="0" t="n">
+      <c r="CF6">
         <v>13768.3</v>
       </c>
-      <c r="CG6" s="0" t="n">
+      <c r="CG6">
         <v>218639</v>
       </c>
-      <c r="CH6" s="0" t="n">
+      <c r="CH6">
         <v>466734</v>
       </c>
-      <c r="CI6" s="0" t="n">
-        <v>8803.28</v>
-      </c>
-      <c r="CJ6" s="0" t="n">
+      <c r="CI6">
+        <v>8803.2800000000007</v>
+      </c>
+      <c r="CJ6">
         <v>198568</v>
       </c>
-      <c r="CK6" s="0" t="n">
+      <c r="CK6">
         <v>969260</v>
       </c>
-      <c r="CL6" s="0" t="n">
+      <c r="CL6">
         <v>415464</v>
       </c>
-      <c r="CM6" s="0" t="n">
+      <c r="CM6">
         <v>80929.2</v>
       </c>
-      <c r="CN6" s="0" t="n">
+      <c r="CN6">
         <v>823984</v>
       </c>
-      <c r="CO6" s="0" t="n">
+      <c r="CO6">
         <v>228305</v>
       </c>
-      <c r="CP6" s="0" t="n">
+      <c r="CP6">
         <v>656691</v>
       </c>
-      <c r="CQ6" s="0" t="n">
+      <c r="CQ6">
         <v>669024</v>
       </c>
-      <c r="CR6" s="0" t="n">
+      <c r="CR6">
         <v>37573.1</v>
       </c>
-      <c r="CS6" s="0" t="n">
+      <c r="CS6">
         <v>692842</v>
       </c>
-      <c r="CT6" s="0" t="n">
+      <c r="CT6">
         <v>697695</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>20</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>190292</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>79821.9</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7">
+        <v>79821.899999999994</v>
+      </c>
+      <c r="D7">
         <v>186576</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>222981</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>228730</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>71338.8</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>10154.6</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>60216.3</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>232124</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7">
         <v>23442.9</v>
       </c>
-      <c r="L7" s="0" t="n">
-        <v>17917.1</v>
-      </c>
-      <c r="M7" s="0" t="n">
+      <c r="L7">
+        <v>17917.099999999999</v>
+      </c>
+      <c r="M7">
         <v>55698.7</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7">
         <v>3661.68</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7">
         <v>49102.6</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7">
         <v>61169.2</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7">
         <v>34896</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7">
         <v>14230.4</v>
       </c>
-      <c r="S7" s="0" t="n">
-        <v>19778.9</v>
-      </c>
-      <c r="T7" s="0" t="n">
+      <c r="S7">
+        <v>19778.900000000001</v>
+      </c>
+      <c r="T7">
         <v>33432.6</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="U7">
         <v>86522.2</v>
       </c>
-      <c r="V7" s="0" t="n">
-        <v>80930.1</v>
-      </c>
-      <c r="W7" s="0" t="n">
+      <c r="V7">
+        <v>80930.100000000006</v>
+      </c>
+      <c r="W7">
         <v>103191</v>
       </c>
-      <c r="X7" s="0" t="n">
-        <v>32992.7</v>
-      </c>
-      <c r="Y7" s="0" t="n">
+      <c r="X7">
+        <v>32992.699999999997</v>
+      </c>
+      <c r="Y7">
         <v>104114</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="Z7">
         <v>53455.8</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AA7">
         <v>15562.4</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AB7">
         <v>50298.8</v>
       </c>
-      <c r="AC7" s="0" t="n">
-        <v>52163.2</v>
-      </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AC7">
+        <v>52163.199999999997</v>
+      </c>
+      <c r="AD7">
         <v>65463.1</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AE7">
         <v>141125</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AF7">
         <v>188643</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AG7">
         <v>91774.5</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AH7">
         <v>58666.9</v>
       </c>
-      <c r="AI7" s="0" t="n">
-        <v>70023.6</v>
-      </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AI7">
+        <v>70023.600000000006</v>
+      </c>
+      <c r="AJ7">
         <v>27179</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AK7">
         <v>142108</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AL7">
         <v>107576</v>
       </c>
-      <c r="AM7" s="0" t="n">
-        <v>18912.6</v>
-      </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AM7">
+        <v>18912.599999999999</v>
+      </c>
+      <c r="AN7">
         <v>100917</v>
       </c>
-      <c r="AO7" s="0" t="n">
+      <c r="AO7">
         <v>347898</v>
       </c>
-      <c r="AP7" s="0" t="n">
+      <c r="AP7">
         <v>934691</v>
       </c>
-      <c r="AQ7" s="0" t="n">
+      <c r="AQ7">
         <v>279008</v>
       </c>
-      <c r="AR7" s="0" t="n">
+      <c r="AR7">
         <v>28923</v>
       </c>
-      <c r="AS7" s="0" t="n">
+      <c r="AS7">
         <v>95816.2</v>
       </c>
-      <c r="AT7" s="0" t="n">
+      <c r="AT7">
         <v>765431</v>
       </c>
-      <c r="AU7" s="0" t="n">
-        <v>39452.7</v>
-      </c>
-      <c r="AV7" s="0" t="n">
+      <c r="AU7">
+        <v>39452.699999999997</v>
+      </c>
+      <c r="AV7">
         <v>673013</v>
       </c>
-      <c r="AW7" s="0" t="n">
+      <c r="AW7">
         <v>763568</v>
       </c>
-      <c r="AX7" s="0" t="n">
+      <c r="AX7">
         <v>603222</v>
       </c>
-      <c r="AY7" s="0" t="n">
+      <c r="AY7">
         <v>43052.5</v>
       </c>
-      <c r="AZ7" s="0" t="n">
+      <c r="AZ7">
         <v>197359</v>
       </c>
-      <c r="BA7" s="0" t="n">
+      <c r="BA7">
         <v>237650</v>
       </c>
-      <c r="BB7" s="0" t="n">
+      <c r="BB7">
         <v>217424</v>
       </c>
-      <c r="BC7" s="0" t="n">
+      <c r="BC7">
         <v>179932</v>
       </c>
-      <c r="BD7" s="0" t="n">
-        <v>71522.6</v>
-      </c>
-      <c r="BE7" s="0" t="n">
+      <c r="BD7">
+        <v>71522.600000000006</v>
+      </c>
+      <c r="BE7">
         <v>53086.3</v>
       </c>
-      <c r="BF7" s="0" t="n">
+      <c r="BF7">
         <v>139185</v>
       </c>
-      <c r="BG7" s="0" t="n">
+      <c r="BG7">
         <v>44640.2</v>
       </c>
-      <c r="BH7" s="0" t="n">
+      <c r="BH7">
         <v>267752</v>
       </c>
-      <c r="BI7" s="0" t="n">
+      <c r="BI7">
         <v>355739</v>
       </c>
-      <c r="BJ7" s="0" t="n">
+      <c r="BJ7">
         <v>195038</v>
       </c>
-      <c r="BK7" s="0" t="n">
+      <c r="BK7">
         <v>206965</v>
       </c>
-      <c r="BL7" s="0" t="n">
+      <c r="BL7">
         <v>207621</v>
       </c>
-      <c r="BM7" s="0" t="n">
+      <c r="BM7">
         <v>477221</v>
       </c>
-      <c r="BN7" s="0" t="n">
+      <c r="BN7">
         <v>420588</v>
       </c>
-      <c r="BO7" s="0" t="n">
+      <c r="BO7">
         <v>201556</v>
       </c>
-      <c r="BP7" s="0" t="n">
+      <c r="BP7">
         <v>300435</v>
       </c>
-      <c r="BQ7" s="0" t="n">
-        <v>93462.4</v>
-      </c>
-      <c r="BR7" s="0" t="n">
+      <c r="BQ7">
+        <v>93462.399999999994</v>
+      </c>
+      <c r="BR7">
         <v>127818</v>
       </c>
-      <c r="BS7" s="0" t="n">
+      <c r="BS7">
         <v>420692</v>
       </c>
-      <c r="BT7" s="0" t="n">
+      <c r="BT7">
         <v>257372</v>
       </c>
-      <c r="BU7" s="0" t="n">
+      <c r="BU7">
         <v>59433.4</v>
       </c>
-      <c r="BV7" s="0" t="n">
+      <c r="BV7">
         <v>112808</v>
       </c>
-      <c r="BW7" s="0" t="n">
+      <c r="BW7">
         <v>125078</v>
       </c>
-      <c r="BX7" s="0" t="n">
+      <c r="BX7">
         <v>207283</v>
       </c>
-      <c r="BY7" s="0" t="n">
+      <c r="BY7">
         <v>244119</v>
       </c>
-      <c r="BZ7" s="0" t="n">
+      <c r="BZ7">
         <v>585730</v>
       </c>
-      <c r="CA7" s="0" t="n">
+      <c r="CA7">
         <v>494181</v>
       </c>
-      <c r="CB7" s="0" t="n">
+      <c r="CB7">
         <v>354085</v>
       </c>
-      <c r="CC7" s="0" t="n">
-        <v>26673.2</v>
-      </c>
-      <c r="CD7" s="0" t="n">
+      <c r="CC7">
+        <v>26673.200000000001</v>
+      </c>
+      <c r="CD7">
         <v>250517</v>
       </c>
-      <c r="CE7" s="0" t="n">
+      <c r="CE7">
         <v>422297</v>
       </c>
-      <c r="CF7" s="0" t="n">
+      <c r="CF7">
         <v>14549.2</v>
       </c>
-      <c r="CG7" s="0" t="n">
+      <c r="CG7">
         <v>234462</v>
       </c>
-      <c r="CH7" s="0" t="n">
+      <c r="CH7">
         <v>472434</v>
       </c>
-      <c r="CI7" s="0" t="n">
-        <v>9076.72</v>
-      </c>
-      <c r="CJ7" s="0" t="n">
+      <c r="CI7">
+        <v>9076.7199999999993</v>
+      </c>
+      <c r="CJ7">
         <v>212802</v>
       </c>
-      <c r="CK7" s="0" t="n">
+      <c r="CK7">
         <v>977745</v>
       </c>
-      <c r="CL7" s="0" t="n">
+      <c r="CL7">
         <v>443783</v>
       </c>
-      <c r="CM7" s="0" t="n">
+      <c r="CM7">
         <v>93142.9</v>
       </c>
-      <c r="CN7" s="0" t="n">
+      <c r="CN7">
         <v>840571</v>
       </c>
-      <c r="CO7" s="0" t="n">
+      <c r="CO7">
         <v>252563</v>
       </c>
-      <c r="CP7" s="0" t="n">
+      <c r="CP7">
         <v>677422</v>
       </c>
-      <c r="CQ7" s="0" t="n">
+      <c r="CQ7">
         <v>691068</v>
       </c>
-      <c r="CR7" s="0" t="n">
+      <c r="CR7">
         <v>42074.7</v>
       </c>
-      <c r="CS7" s="0" t="n">
+      <c r="CS7">
         <v>716128</v>
       </c>
-      <c r="CT7" s="0" t="n">
+      <c r="CT7">
         <v>720764</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>30</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>191494</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>80692.5</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>187547</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>223430</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>229104</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>73086.9</v>
-      </c>
-      <c r="H8" s="0" t="n">
+      <c r="G8">
+        <v>73086.899999999994</v>
+      </c>
+      <c r="H8">
         <v>10159.1</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>61318.8</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>232332</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8">
         <v>23976</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8">
         <v>18165.7</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8">
         <v>56065.4</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8">
         <v>3687.8</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8">
         <v>49447.1</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8">
         <v>61249.8</v>
       </c>
-      <c r="Q8" s="0" t="n">
-        <v>35354.4</v>
-      </c>
-      <c r="R8" s="0" t="n">
+      <c r="Q8">
+        <v>35354.400000000001</v>
+      </c>
+      <c r="R8">
         <v>14419.7</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8">
         <v>20124.2</v>
       </c>
-      <c r="T8" s="0" t="n">
-        <v>34137.3</v>
-      </c>
-      <c r="U8" s="0" t="n">
+      <c r="T8">
+        <v>34137.300000000003</v>
+      </c>
+      <c r="U8">
         <v>87249.5</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8">
         <v>82122.7</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="W8">
         <v>103913</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="X8">
         <v>33456.5</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Y8">
         <v>104905</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="Z8">
         <v>54829.5</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AA8">
         <v>15826.3</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AB8">
         <v>51352.3</v>
       </c>
-      <c r="AC8" s="0" t="n">
-        <v>53212.8</v>
-      </c>
-      <c r="AD8" s="0" t="n">
+      <c r="AC8">
+        <v>53212.800000000003</v>
+      </c>
+      <c r="AD8">
         <v>66907.8</v>
       </c>
-      <c r="AE8" s="0" t="n">
+      <c r="AE8">
         <v>142313</v>
       </c>
-      <c r="AF8" s="0" t="n">
+      <c r="AF8">
         <v>188638</v>
       </c>
-      <c r="AG8" s="0" t="n">
+      <c r="AG8">
         <v>93070.5</v>
       </c>
-      <c r="AH8" s="0" t="n">
+      <c r="AH8">
         <v>60195.7</v>
       </c>
-      <c r="AI8" s="0" t="n">
-        <v>70877.6</v>
-      </c>
-      <c r="AJ8" s="0" t="n">
+      <c r="AI8">
+        <v>70877.600000000006</v>
+      </c>
+      <c r="AJ8">
         <v>27432.1</v>
       </c>
-      <c r="AK8" s="0" t="n">
+      <c r="AK8">
         <v>143242</v>
       </c>
-      <c r="AL8" s="0" t="n">
+      <c r="AL8">
         <v>109085</v>
       </c>
-      <c r="AM8" s="0" t="n">
-        <v>19263.9</v>
-      </c>
-      <c r="AN8" s="0" t="n">
+      <c r="AM8">
+        <v>19263.900000000001</v>
+      </c>
+      <c r="AN8">
         <v>102314</v>
       </c>
-      <c r="AO8" s="0" t="n">
+      <c r="AO8">
         <v>358993</v>
       </c>
-      <c r="AP8" s="0" t="n">
+      <c r="AP8">
         <v>935466</v>
       </c>
-      <c r="AQ8" s="0" t="n">
+      <c r="AQ8">
         <v>289227</v>
       </c>
-      <c r="AR8" s="0" t="n">
+      <c r="AR8">
         <v>29091.1</v>
       </c>
-      <c r="AS8" s="0" t="n">
+      <c r="AS8">
         <v>98898.8</v>
       </c>
-      <c r="AT8" s="0" t="n">
+      <c r="AT8">
         <v>770783</v>
       </c>
-      <c r="AU8" s="0" t="n">
+      <c r="AU8">
         <v>39866.6</v>
       </c>
-      <c r="AV8" s="0" t="n">
+      <c r="AV8">
         <v>680319</v>
       </c>
-      <c r="AW8" s="0" t="n">
+      <c r="AW8">
         <v>769394</v>
       </c>
-      <c r="AX8" s="0" t="n">
+      <c r="AX8">
         <v>610991</v>
       </c>
-      <c r="AY8" s="0" t="n">
+      <c r="AY8">
         <v>45166</v>
       </c>
-      <c r="AZ8" s="0" t="n">
+      <c r="AZ8">
         <v>199229</v>
       </c>
-      <c r="BA8" s="0" t="n">
+      <c r="BA8">
         <v>238236</v>
       </c>
-      <c r="BB8" s="0" t="n">
+      <c r="BB8">
         <v>218412</v>
       </c>
-      <c r="BC8" s="0" t="n">
+      <c r="BC8">
         <v>181995</v>
       </c>
-      <c r="BD8" s="0" t="n">
+      <c r="BD8">
         <v>74502.8</v>
       </c>
-      <c r="BE8" s="0" t="n">
+      <c r="BE8">
         <v>55201.8</v>
       </c>
-      <c r="BF8" s="0" t="n">
+      <c r="BF8">
         <v>142373</v>
       </c>
-      <c r="BG8" s="0" t="n">
+      <c r="BG8">
         <v>46473.7</v>
       </c>
-      <c r="BH8" s="0" t="n">
+      <c r="BH8">
         <v>272642</v>
       </c>
-      <c r="BI8" s="0" t="n">
+      <c r="BI8">
         <v>360036</v>
       </c>
-      <c r="BJ8" s="0" t="n">
+      <c r="BJ8">
         <v>200377</v>
       </c>
-      <c r="BK8" s="0" t="n">
+      <c r="BK8">
         <v>213987</v>
       </c>
-      <c r="BL8" s="0" t="n">
+      <c r="BL8">
         <v>215261</v>
       </c>
-      <c r="BM8" s="0" t="n">
+      <c r="BM8">
         <v>477930</v>
       </c>
-      <c r="BN8" s="0" t="n">
+      <c r="BN8">
         <v>422489</v>
       </c>
-      <c r="BO8" s="0" t="n">
+      <c r="BO8">
         <v>207202</v>
       </c>
-      <c r="BP8" s="0" t="n">
+      <c r="BP8">
         <v>305949</v>
       </c>
-      <c r="BQ8" s="0" t="n">
+      <c r="BQ8">
         <v>98119.8</v>
       </c>
-      <c r="BR8" s="0" t="n">
+      <c r="BR8">
         <v>135050</v>
       </c>
-      <c r="BS8" s="0" t="n">
+      <c r="BS8">
         <v>427355</v>
       </c>
-      <c r="BT8" s="0" t="n">
+      <c r="BT8">
         <v>265765</v>
       </c>
-      <c r="BU8" s="0" t="n">
+      <c r="BU8">
         <v>61075.6</v>
       </c>
-      <c r="BV8" s="0" t="n">
+      <c r="BV8">
         <v>118783</v>
       </c>
-      <c r="BW8" s="0" t="n">
+      <c r="BW8">
         <v>131660</v>
       </c>
-      <c r="BX8" s="0" t="n">
+      <c r="BX8">
         <v>216084</v>
       </c>
-      <c r="BY8" s="0" t="n">
+      <c r="BY8">
         <v>254239</v>
       </c>
-      <c r="BZ8" s="0" t="n">
+      <c r="BZ8">
         <v>590094</v>
       </c>
-      <c r="CA8" s="0" t="n">
+      <c r="CA8">
         <v>501053</v>
       </c>
-      <c r="CB8" s="0" t="n">
+      <c r="CB8">
         <v>360321</v>
       </c>
-      <c r="CC8" s="0" t="n">
+      <c r="CC8">
         <v>27876.2</v>
       </c>
-      <c r="CD8" s="0" t="n">
+      <c r="CD8">
         <v>257805</v>
       </c>
-      <c r="CE8" s="0" t="n">
+      <c r="CE8">
         <v>427243</v>
       </c>
-      <c r="CF8" s="0" t="n">
+      <c r="CF8">
         <v>14715.4</v>
       </c>
-      <c r="CG8" s="0" t="n">
+      <c r="CG8">
         <v>242428</v>
       </c>
-      <c r="CH8" s="0" t="n">
+      <c r="CH8">
         <v>475416</v>
       </c>
-      <c r="CI8" s="0" t="n">
-        <v>9150.04</v>
-      </c>
-      <c r="CJ8" s="0" t="n">
+      <c r="CI8">
+        <v>9150.0400000000009</v>
+      </c>
+      <c r="CJ8">
         <v>221693</v>
       </c>
-      <c r="CK8" s="0" t="n">
+      <c r="CK8">
         <v>981624</v>
       </c>
-      <c r="CL8" s="0" t="n">
+      <c r="CL8">
         <v>460114</v>
       </c>
-      <c r="CM8" s="0" t="n">
+      <c r="CM8">
         <v>98390.5</v>
       </c>
-      <c r="CN8" s="0" t="n">
+      <c r="CN8">
         <v>848529</v>
       </c>
-      <c r="CO8" s="0" t="n">
+      <c r="CO8">
         <v>267969</v>
       </c>
-      <c r="CP8" s="0" t="n">
+      <c r="CP8">
         <v>688697</v>
       </c>
-      <c r="CQ8" s="0" t="n">
+      <c r="CQ8">
         <v>700792</v>
       </c>
-      <c r="CR8" s="0" t="n">
+      <c r="CR8">
         <v>42974.7</v>
       </c>
-      <c r="CS8" s="0" t="n">
+      <c r="CS8">
         <v>727792</v>
       </c>
-      <c r="CT8" s="0" t="n">
+      <c r="CT8">
         <v>731004</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>40</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>192112</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>81103.3</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>188180</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>223610</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>229172</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>73676.2</v>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>10155.2</v>
-      </c>
-      <c r="I9" s="0" t="n">
+      <c r="H9">
+        <v>10155.200000000001</v>
+      </c>
+      <c r="I9">
         <v>61817.2</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>232423</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>24270.1</v>
       </c>
-      <c r="L9" s="0" t="n">
-        <v>18260.1</v>
-      </c>
-      <c r="M9" s="0" t="n">
+      <c r="L9">
+        <v>18260.099999999999</v>
+      </c>
+      <c r="M9">
         <v>56270.1</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9">
         <v>3698.12</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9">
         <v>49640</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9">
         <v>61306.1</v>
       </c>
-      <c r="Q9" s="0" t="n">
-        <v>35584.4</v>
-      </c>
-      <c r="R9" s="0" t="n">
+      <c r="Q9">
+        <v>35584.400000000001</v>
+      </c>
+      <c r="R9">
         <v>14484.4</v>
       </c>
-      <c r="S9" s="0" t="n">
-        <v>20238.1</v>
-      </c>
-      <c r="T9" s="0" t="n">
+      <c r="S9">
+        <v>20238.099999999999</v>
+      </c>
+      <c r="T9">
         <v>34594.1</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="U9">
         <v>87569.7</v>
       </c>
-      <c r="V9" s="0" t="n">
-        <v>82764.6</v>
-      </c>
-      <c r="W9" s="0" t="n">
+      <c r="V9">
+        <v>82764.600000000006</v>
+      </c>
+      <c r="W9">
         <v>104212</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="X9">
         <v>33598</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Y9">
         <v>105255</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="Z9">
         <v>55491.8</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AA9">
         <v>15948.7</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AB9">
         <v>51891.1</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AC9">
         <v>53519.7</v>
       </c>
-      <c r="AD9" s="0" t="n">
+      <c r="AD9">
         <v>67382.5</v>
       </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AE9">
         <v>142764</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AF9">
         <v>188646</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AG9">
         <v>93847.8</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AH9">
         <v>60807</v>
       </c>
-      <c r="AI9" s="0" t="n">
-        <v>71313.1</v>
-      </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AI9">
+        <v>71313.100000000006</v>
+      </c>
+      <c r="AJ9">
         <v>27498.7</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AK9">
         <v>144136</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AL9">
         <v>109485</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AM9">
         <v>19363.5</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AN9">
         <v>102987</v>
       </c>
-      <c r="AO9" s="0" t="n">
+      <c r="AO9">
         <v>365453</v>
       </c>
-      <c r="AP9" s="0" t="n">
+      <c r="AP9">
         <v>935871</v>
       </c>
-      <c r="AQ9" s="0" t="n">
+      <c r="AQ9">
         <v>295626</v>
       </c>
-      <c r="AR9" s="0" t="n">
+      <c r="AR9">
         <v>29107.7</v>
       </c>
-      <c r="AS9" s="0" t="n">
+      <c r="AS9">
         <v>99619</v>
       </c>
-      <c r="AT9" s="0" t="n">
+      <c r="AT9">
         <v>773415</v>
       </c>
-      <c r="AU9" s="0" t="n">
-        <v>40012.7</v>
-      </c>
-      <c r="AV9" s="0" t="n">
+      <c r="AU9">
+        <v>40012.699999999997</v>
+      </c>
+      <c r="AV9">
         <v>683634</v>
       </c>
-      <c r="AW9" s="0" t="n">
+      <c r="AW9">
         <v>773471</v>
       </c>
-      <c r="AX9" s="0" t="n">
+      <c r="AX9">
         <v>616298</v>
       </c>
-      <c r="AY9" s="0" t="n">
-        <v>46653.6</v>
-      </c>
-      <c r="AZ9" s="0" t="n">
+      <c r="AY9">
+        <v>46653.599999999999</v>
+      </c>
+      <c r="AZ9">
         <v>200569</v>
       </c>
-      <c r="BA9" s="0" t="n">
+      <c r="BA9">
         <v>238606</v>
       </c>
-      <c r="BB9" s="0" t="n">
+      <c r="BB9">
         <v>219120</v>
       </c>
-      <c r="BC9" s="0" t="n">
+      <c r="BC9">
         <v>183286</v>
       </c>
-      <c r="BD9" s="0" t="n">
+      <c r="BD9">
         <v>76396.5</v>
       </c>
-      <c r="BE9" s="0" t="n">
+      <c r="BE9">
         <v>56504.3</v>
       </c>
-      <c r="BF9" s="0" t="n">
+      <c r="BF9">
         <v>143936</v>
       </c>
-      <c r="BG9" s="0" t="n">
+      <c r="BG9">
         <v>47770.1</v>
       </c>
-      <c r="BH9" s="0" t="n">
+      <c r="BH9">
         <v>275671</v>
       </c>
-      <c r="BI9" s="0" t="n">
+      <c r="BI9">
         <v>362904</v>
       </c>
-      <c r="BJ9" s="0" t="n">
+      <c r="BJ9">
         <v>203751</v>
       </c>
-      <c r="BK9" s="0" t="n">
+      <c r="BK9">
         <v>218235</v>
       </c>
-      <c r="BL9" s="0" t="n">
+      <c r="BL9">
         <v>218564</v>
       </c>
-      <c r="BM9" s="0" t="n">
+      <c r="BM9">
         <v>478244</v>
       </c>
-      <c r="BN9" s="0" t="n">
+      <c r="BN9">
         <v>423653</v>
       </c>
-      <c r="BO9" s="0" t="n">
+      <c r="BO9">
         <v>210788</v>
       </c>
-      <c r="BP9" s="0" t="n">
+      <c r="BP9">
         <v>309124</v>
       </c>
-      <c r="BQ9" s="0" t="n">
+      <c r="BQ9">
         <v>100581</v>
       </c>
-      <c r="BR9" s="0" t="n">
+      <c r="BR9">
         <v>138656</v>
       </c>
-      <c r="BS9" s="0" t="n">
+      <c r="BS9">
         <v>431381</v>
       </c>
-      <c r="BT9" s="0" t="n">
+      <c r="BT9">
         <v>271770</v>
       </c>
-      <c r="BU9" s="0" t="n">
+      <c r="BU9">
         <v>61370.2</v>
       </c>
-      <c r="BV9" s="0" t="n">
+      <c r="BV9">
         <v>122380</v>
       </c>
-      <c r="BW9" s="0" t="n">
+      <c r="BW9">
         <v>134628</v>
       </c>
-      <c r="BX9" s="0" t="n">
+      <c r="BX9">
         <v>221762</v>
       </c>
-      <c r="BY9" s="0" t="n">
+      <c r="BY9">
         <v>260083</v>
       </c>
-      <c r="BZ9" s="0" t="n">
+      <c r="BZ9">
         <v>593106</v>
       </c>
-      <c r="CA9" s="0" t="n">
+      <c r="CA9">
         <v>505252</v>
       </c>
-      <c r="CB9" s="0" t="n">
+      <c r="CB9">
         <v>364731</v>
       </c>
-      <c r="CC9" s="0" t="n">
-        <v>28390.8</v>
-      </c>
-      <c r="CD9" s="0" t="n">
+      <c r="CC9">
+        <v>28390.799999999999</v>
+      </c>
+      <c r="CD9">
         <v>262488</v>
       </c>
-      <c r="CE9" s="0" t="n">
+      <c r="CE9">
         <v>430579</v>
       </c>
-      <c r="CF9" s="0" t="n">
+      <c r="CF9">
         <v>14735.2</v>
       </c>
-      <c r="CG9" s="0" t="n">
+      <c r="CG9">
         <v>247694</v>
       </c>
-      <c r="CH9" s="0" t="n">
+      <c r="CH9">
         <v>477290</v>
       </c>
-      <c r="CI9" s="0" t="n">
-        <v>9163.7</v>
-      </c>
-      <c r="CJ9" s="0" t="n">
+      <c r="CI9">
+        <v>9163.7000000000007</v>
+      </c>
+      <c r="CJ9">
         <v>228109</v>
       </c>
-      <c r="CK9" s="0" t="n">
+      <c r="CK9">
         <v>983976</v>
       </c>
-      <c r="CL9" s="0" t="n">
+      <c r="CL9">
         <v>471408</v>
       </c>
-      <c r="CM9" s="0" t="n">
+      <c r="CM9">
         <v>101243</v>
       </c>
-      <c r="CN9" s="0" t="n">
+      <c r="CN9">
         <v>853237</v>
       </c>
-      <c r="CO9" s="0" t="n">
+      <c r="CO9">
         <v>278438</v>
       </c>
-      <c r="CP9" s="0" t="n">
+      <c r="CP9">
         <v>697374</v>
       </c>
-      <c r="CQ9" s="0" t="n">
+      <c r="CQ9">
         <v>706945</v>
       </c>
-      <c r="CR9" s="0" t="n">
+      <c r="CR9">
         <v>43224.3</v>
       </c>
-      <c r="CS9" s="0" t="n">
+      <c r="CS9">
         <v>735296</v>
       </c>
-      <c r="CT9" s="0" t="n">
+      <c r="CT9">
         <v>736819</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>50</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>192300</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>81458</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>188636</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>223570</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>229445</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>73761.4</v>
-      </c>
-      <c r="H10" s="0" t="n">
+      <c r="G10">
+        <v>73761.399999999994</v>
+      </c>
+      <c r="H10">
         <v>10154.9</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10">
         <v>62103.3</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10">
         <v>232503</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10">
         <v>24478.1</v>
       </c>
-      <c r="L10" s="0" t="n">
-        <v>18319.4</v>
-      </c>
-      <c r="M10" s="0" t="n">
+      <c r="L10">
+        <v>18319.400000000001</v>
+      </c>
+      <c r="M10">
         <v>56395.8</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10">
         <v>3702.2</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10">
         <v>49796.5</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10">
         <v>61346</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10">
         <v>35722.5</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10">
         <v>14493.7</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10">
         <v>20248.7</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="T10">
         <v>34805.5</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="U10">
         <v>87811.5</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="V10">
         <v>83053.5</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="W10">
         <v>104369</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="X10">
         <v>33657.5</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Y10">
         <v>105422</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="Z10">
         <v>55729.4</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AA10">
         <v>15973.5</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AB10">
         <v>52128.6</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AC10">
         <v>53750.1</v>
       </c>
-      <c r="AD10" s="0" t="n">
-        <v>67815.1</v>
-      </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AD10">
+        <v>67815.100000000006</v>
+      </c>
+      <c r="AE10">
         <v>143164</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AF10">
         <v>188654</v>
       </c>
-      <c r="AG10" s="0" t="n">
-        <v>94284.8</v>
-      </c>
-      <c r="AH10" s="0" t="n">
-        <v>61201.6</v>
-      </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AG10">
+        <v>94284.800000000003</v>
+      </c>
+      <c r="AH10">
+        <v>61201.599999999999</v>
+      </c>
+      <c r="AI10">
         <v>71582.3</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AJ10">
         <v>27506.5</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AK10">
         <v>144669</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AL10">
         <v>109837</v>
       </c>
-      <c r="AM10" s="0" t="n">
-        <v>19376.1</v>
-      </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AM10">
+        <v>19376.099999999999</v>
+      </c>
+      <c r="AN10">
         <v>103245</v>
       </c>
-      <c r="AO10" s="0" t="n">
+      <c r="AO10">
         <v>369670</v>
       </c>
-      <c r="AP10" s="0" t="n">
+      <c r="AP10">
         <v>936067</v>
       </c>
-      <c r="AQ10" s="0" t="n">
+      <c r="AQ10">
         <v>298995</v>
       </c>
-      <c r="AR10" s="0" t="n">
+      <c r="AR10">
         <v>29167.5</v>
       </c>
-      <c r="AS10" s="0" t="n">
+      <c r="AS10">
         <v>100081</v>
       </c>
-      <c r="AT10" s="0" t="n">
+      <c r="AT10">
         <v>775206</v>
       </c>
-      <c r="AU10" s="0" t="n">
-        <v>40109.8</v>
-      </c>
-      <c r="AV10" s="0" t="n">
+      <c r="AU10">
+        <v>40109.800000000003</v>
+      </c>
+      <c r="AV10">
         <v>687521</v>
       </c>
-      <c r="AW10" s="0" t="n">
+      <c r="AW10">
         <v>775482</v>
       </c>
-      <c r="AX10" s="0" t="n">
+      <c r="AX10">
         <v>618773</v>
       </c>
-      <c r="AY10" s="0" t="n">
+      <c r="AY10">
         <v>47271.1</v>
       </c>
-      <c r="AZ10" s="0" t="n">
+      <c r="AZ10">
         <v>201338</v>
       </c>
-      <c r="BA10" s="0" t="n">
+      <c r="BA10">
         <v>238808</v>
       </c>
-      <c r="BB10" s="0" t="n">
+      <c r="BB10">
         <v>219723</v>
       </c>
-      <c r="BC10" s="0" t="n">
+      <c r="BC10">
         <v>184223</v>
       </c>
-      <c r="BD10" s="0" t="n">
+      <c r="BD10">
         <v>77624.7</v>
       </c>
-      <c r="BE10" s="0" t="n">
+      <c r="BE10">
         <v>57232</v>
       </c>
-      <c r="BF10" s="0" t="n">
+      <c r="BF10">
         <v>145249</v>
       </c>
-      <c r="BG10" s="0" t="n">
-        <v>48349.6</v>
-      </c>
-      <c r="BH10" s="0" t="n">
+      <c r="BG10">
+        <v>48349.599999999999</v>
+      </c>
+      <c r="BH10">
         <v>277762</v>
       </c>
-      <c r="BI10" s="0" t="n">
+      <c r="BI10">
         <v>365079</v>
       </c>
-      <c r="BJ10" s="0" t="n">
+      <c r="BJ10">
         <v>205848</v>
       </c>
-      <c r="BK10" s="0" t="n">
+      <c r="BK10">
         <v>220470</v>
       </c>
-      <c r="BL10" s="0" t="n">
+      <c r="BL10">
         <v>221409</v>
       </c>
-      <c r="BM10" s="0" t="n">
+      <c r="BM10">
         <v>478591</v>
       </c>
-      <c r="BN10" s="0" t="n">
+      <c r="BN10">
         <v>424403</v>
       </c>
-      <c r="BO10" s="0" t="n">
+      <c r="BO10">
         <v>213512</v>
       </c>
-      <c r="BP10" s="0" t="n">
+      <c r="BP10">
         <v>311103</v>
       </c>
-      <c r="BQ10" s="0" t="n">
+      <c r="BQ10">
         <v>102216</v>
       </c>
-      <c r="BR10" s="0" t="n">
+      <c r="BR10">
         <v>140198</v>
       </c>
-      <c r="BS10" s="0" t="n">
+      <c r="BS10">
         <v>434051</v>
       </c>
-      <c r="BT10" s="0" t="n">
+      <c r="BT10">
         <v>275848</v>
       </c>
-      <c r="BU10" s="0" t="n">
+      <c r="BU10">
         <v>61460.9</v>
       </c>
-      <c r="BV10" s="0" t="n">
+      <c r="BV10">
         <v>124513</v>
       </c>
-      <c r="BW10" s="0" t="n">
+      <c r="BW10">
         <v>136158</v>
       </c>
-      <c r="BX10" s="0" t="n">
+      <c r="BX10">
         <v>224713</v>
       </c>
-      <c r="BY10" s="0" t="n">
+      <c r="BY10">
         <v>263673</v>
       </c>
-      <c r="BZ10" s="0" t="n">
+      <c r="BZ10">
         <v>594253</v>
       </c>
-      <c r="CA10" s="0" t="n">
+      <c r="CA10">
         <v>508314</v>
       </c>
-      <c r="CB10" s="0" t="n">
+      <c r="CB10">
         <v>367682</v>
       </c>
-      <c r="CC10" s="0" t="n">
-        <v>28547.6</v>
-      </c>
-      <c r="CD10" s="0" t="n">
+      <c r="CC10">
+        <v>28547.599999999999</v>
+      </c>
+      <c r="CD10">
         <v>266674</v>
       </c>
-      <c r="CE10" s="0" t="n">
+      <c r="CE10">
         <v>433341</v>
       </c>
-      <c r="CF10" s="0" t="n">
+      <c r="CF10">
         <v>14763.3</v>
       </c>
-      <c r="CG10" s="0" t="n">
+      <c r="CG10">
         <v>252548</v>
       </c>
-      <c r="CH10" s="0" t="n">
+      <c r="CH10">
         <v>478457</v>
       </c>
-      <c r="CI10" s="0" t="n">
+      <c r="CI10">
         <v>9164.66</v>
       </c>
-      <c r="CJ10" s="0" t="n">
+      <c r="CJ10">
         <v>233387</v>
       </c>
-      <c r="CK10" s="0" t="n">
+      <c r="CK10">
         <v>986126</v>
       </c>
-      <c r="CL10" s="0" t="n">
+      <c r="CL10">
         <v>479968</v>
       </c>
-      <c r="CM10" s="0" t="n">
+      <c r="CM10">
         <v>102886</v>
       </c>
-      <c r="CN10" s="0" t="n">
+      <c r="CN10">
         <v>857099</v>
       </c>
-      <c r="CO10" s="0" t="n">
+      <c r="CO10">
         <v>286787</v>
       </c>
-      <c r="CP10" s="0" t="n">
+      <c r="CP10">
         <v>702680</v>
       </c>
-      <c r="CQ10" s="0" t="n">
+      <c r="CQ10">
         <v>711411</v>
       </c>
-      <c r="CR10" s="0" t="n">
+      <c r="CR10">
         <v>43338.8</v>
       </c>
-      <c r="CS10" s="0" t="n">
+      <c r="CS10">
         <v>741030</v>
       </c>
-      <c r="CT10" s="0" t="n">
+      <c r="CT10">
         <v>741516</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>60</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>192511</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>81617</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>188759</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>223773</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>229472</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11">
         <v>73868.3</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11">
         <v>10155.5</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11">
         <v>62208.4</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11">
         <v>232562</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11">
         <v>24601.4</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11">
         <v>18345.2</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11">
         <v>56445.5</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11">
         <v>3703.2</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11">
         <v>49920.2</v>
       </c>
-      <c r="P11" s="0" t="n">
-        <v>61394.4</v>
-      </c>
-      <c r="Q11" s="0" t="n">
+      <c r="P11">
+        <v>61394.400000000001</v>
+      </c>
+      <c r="Q11">
         <v>35793.4</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11">
         <v>14514.4</v>
       </c>
-      <c r="S11" s="0" t="n">
-        <v>20267.6</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>34901.7</v>
-      </c>
-      <c r="U11" s="0" t="n">
+      <c r="S11">
+        <v>20267.599999999999</v>
+      </c>
+      <c r="T11">
+        <v>34901.699999999997</v>
+      </c>
+      <c r="U11">
         <v>87906.1</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11">
         <v>83178.7</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="W11">
         <v>104539</v>
       </c>
-      <c r="X11" s="0" t="n">
-        <v>33680.8</v>
-      </c>
-      <c r="Y11" s="0" t="n">
+      <c r="X11">
+        <v>33680.800000000003</v>
+      </c>
+      <c r="Y11">
         <v>105532</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="Z11">
         <v>55914.9</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AA11">
         <v>16008.7</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AB11">
         <v>52334.6</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AC11">
         <v>53838.6</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AD11">
         <v>68118.8</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AE11">
         <v>143276</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AF11">
         <v>188649</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AG11">
         <v>94399.5</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AH11">
         <v>61428</v>
       </c>
-      <c r="AI11" s="0" t="n">
-        <v>71666.4</v>
-      </c>
-      <c r="AJ11" s="0" t="n">
-        <v>27527.6</v>
-      </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AI11">
+        <v>71666.399999999994</v>
+      </c>
+      <c r="AJ11">
+        <v>27527.599999999999</v>
+      </c>
+      <c r="AK11">
         <v>144850</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AL11">
         <v>110024</v>
       </c>
-      <c r="AM11" s="0" t="n">
-        <v>19383.6</v>
-      </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AM11">
+        <v>19383.599999999999</v>
+      </c>
+      <c r="AN11">
         <v>103453</v>
       </c>
-      <c r="AO11" s="0" t="n">
+      <c r="AO11">
         <v>372272</v>
       </c>
-      <c r="AP11" s="0" t="n">
+      <c r="AP11">
         <v>936236</v>
       </c>
-      <c r="AQ11" s="0" t="n">
+      <c r="AQ11">
         <v>300919</v>
       </c>
-      <c r="AR11" s="0" t="n">
+      <c r="AR11">
         <v>29171.9</v>
       </c>
-      <c r="AS11" s="0" t="n">
+      <c r="AS11">
         <v>100345</v>
       </c>
-      <c r="AT11" s="0" t="n">
+      <c r="AT11">
         <v>777114</v>
       </c>
-      <c r="AU11" s="0" t="n">
-        <v>40121.3</v>
-      </c>
-      <c r="AV11" s="0" t="n">
+      <c r="AU11">
+        <v>40121.300000000003</v>
+      </c>
+      <c r="AV11">
         <v>689403</v>
       </c>
-      <c r="AW11" s="0" t="n">
+      <c r="AW11">
         <v>776816</v>
       </c>
-      <c r="AX11" s="0" t="n">
+      <c r="AX11">
         <v>620090</v>
       </c>
-      <c r="AY11" s="0" t="n">
+      <c r="AY11">
         <v>47604.1</v>
       </c>
-      <c r="AZ11" s="0" t="n">
+      <c r="AZ11">
         <v>202059</v>
       </c>
-      <c r="BA11" s="0" t="n">
+      <c r="BA11">
         <v>238969</v>
       </c>
-      <c r="BB11" s="0" t="n">
+      <c r="BB11">
         <v>220007</v>
       </c>
-      <c r="BC11" s="0" t="n">
+      <c r="BC11">
         <v>184811</v>
       </c>
-      <c r="BD11" s="0" t="n">
-        <v>78362.4</v>
-      </c>
-      <c r="BE11" s="0" t="n">
+      <c r="BD11">
+        <v>78362.399999999994</v>
+      </c>
+      <c r="BE11">
         <v>57668.5</v>
       </c>
-      <c r="BF11" s="0" t="n">
+      <c r="BF11">
         <v>146130</v>
       </c>
-      <c r="BG11" s="0" t="n">
+      <c r="BG11">
         <v>48618.8</v>
       </c>
-      <c r="BH11" s="0" t="n">
+      <c r="BH11">
         <v>279152</v>
       </c>
-      <c r="BI11" s="0" t="n">
+      <c r="BI11">
         <v>366678</v>
       </c>
-      <c r="BJ11" s="0" t="n">
+      <c r="BJ11">
         <v>207345</v>
       </c>
-      <c r="BK11" s="0" t="n">
+      <c r="BK11">
         <v>222623</v>
       </c>
-      <c r="BL11" s="0" t="n">
+      <c r="BL11">
         <v>223762</v>
       </c>
-      <c r="BM11" s="0" t="n">
+      <c r="BM11">
         <v>478821</v>
       </c>
-      <c r="BN11" s="0" t="n">
+      <c r="BN11">
         <v>424931</v>
       </c>
-      <c r="BO11" s="0" t="n">
+      <c r="BO11">
         <v>215501</v>
       </c>
-      <c r="BP11" s="0" t="n">
+      <c r="BP11">
         <v>312504</v>
       </c>
-      <c r="BQ11" s="0" t="n">
+      <c r="BQ11">
         <v>103014</v>
       </c>
-      <c r="BR11" s="0" t="n">
+      <c r="BR11">
         <v>141022</v>
       </c>
-      <c r="BS11" s="0" t="n">
+      <c r="BS11">
         <v>435889</v>
       </c>
-      <c r="BT11" s="0" t="n">
+      <c r="BT11">
         <v>278917</v>
       </c>
-      <c r="BU11" s="0" t="n">
-        <v>61495.2</v>
-      </c>
-      <c r="BV11" s="0" t="n">
+      <c r="BU11">
+        <v>61495.199999999997</v>
+      </c>
+      <c r="BV11">
         <v>125648</v>
       </c>
-      <c r="BW11" s="0" t="n">
+      <c r="BW11">
         <v>136742</v>
       </c>
-      <c r="BX11" s="0" t="n">
+      <c r="BX11">
         <v>226189</v>
       </c>
-      <c r="BY11" s="0" t="n">
+      <c r="BY11">
         <v>265322</v>
       </c>
-      <c r="BZ11" s="0" t="n">
+      <c r="BZ11">
         <v>595225</v>
       </c>
-      <c r="CA11" s="0" t="n">
+      <c r="CA11">
         <v>509748</v>
       </c>
-      <c r="CB11" s="0" t="n">
+      <c r="CB11">
         <v>370586</v>
       </c>
-      <c r="CC11" s="0" t="n">
+      <c r="CC11">
         <v>28670</v>
       </c>
-      <c r="CD11" s="0" t="n">
+      <c r="CD11">
         <v>269602</v>
       </c>
-      <c r="CE11" s="0" t="n">
+      <c r="CE11">
         <v>435142</v>
       </c>
-      <c r="CF11" s="0" t="n">
+      <c r="CF11">
         <v>14770.8</v>
       </c>
-      <c r="CG11" s="0" t="n">
+      <c r="CG11">
         <v>255954</v>
       </c>
-      <c r="CH11" s="0" t="n">
+      <c r="CH11">
         <v>479325</v>
       </c>
-      <c r="CI11" s="0" t="n">
+      <c r="CI11">
         <v>9170.66</v>
       </c>
-      <c r="CJ11" s="0" t="n">
+      <c r="CJ11">
         <v>237242</v>
       </c>
-      <c r="CK11" s="0" t="n">
+      <c r="CK11">
         <v>987385</v>
       </c>
-      <c r="CL11" s="0" t="n">
+      <c r="CL11">
         <v>486489</v>
       </c>
-      <c r="CM11" s="0" t="n">
+      <c r="CM11">
         <v>103960</v>
       </c>
-      <c r="CN11" s="0" t="n">
+      <c r="CN11">
         <v>859891</v>
       </c>
-      <c r="CO11" s="0" t="n">
+      <c r="CO11">
         <v>291782</v>
       </c>
-      <c r="CP11" s="0" t="n">
+      <c r="CP11">
         <v>706706</v>
       </c>
-      <c r="CQ11" s="0" t="n">
+      <c r="CQ11">
         <v>715087</v>
       </c>
-      <c r="CR11" s="0" t="n">
+      <c r="CR11">
         <v>43363.8</v>
       </c>
-      <c r="CS11" s="0" t="n">
+      <c r="CS11">
         <v>745769</v>
       </c>
-      <c r="CT11" s="0" t="n">
+      <c r="CT11">
         <v>744957</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>70</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>192721</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>81635.7</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>188948</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>223886</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>229557</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>73889.1</v>
-      </c>
-      <c r="H12" s="0" t="n">
+      <c r="G12">
+        <v>73889.100000000006</v>
+      </c>
+      <c r="H12">
         <v>10154.9</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12">
         <v>62247.9</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12">
         <v>232567</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12">
         <v>24642</v>
       </c>
-      <c r="L12" s="0" t="n">
-        <v>18356.1</v>
-      </c>
-      <c r="M12" s="0" t="n">
+      <c r="L12">
+        <v>18356.099999999999</v>
+      </c>
+      <c r="M12">
         <v>56462.2</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12">
         <v>3703.2</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12">
         <v>49981.7</v>
       </c>
-      <c r="P12" s="0" t="n">
-        <v>61426.4</v>
-      </c>
-      <c r="Q12" s="0" t="n">
+      <c r="P12">
+        <v>61426.400000000001</v>
+      </c>
+      <c r="Q12">
         <v>35879.1</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12">
         <v>14520.2</v>
       </c>
-      <c r="S12" s="0" t="n">
-        <v>20269.1</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>34992.3</v>
-      </c>
-      <c r="U12" s="0" t="n">
+      <c r="S12">
+        <v>20269.099999999999</v>
+      </c>
+      <c r="T12">
+        <v>34992.300000000003</v>
+      </c>
+      <c r="U12">
         <v>88046.2</v>
       </c>
-      <c r="V12" s="0" t="n">
-        <v>83211.9</v>
-      </c>
-      <c r="W12" s="0" t="n">
+      <c r="V12">
+        <v>83211.899999999994</v>
+      </c>
+      <c r="W12">
         <v>104545</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="X12">
         <v>33695.1</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Y12">
         <v>105686</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="Z12">
         <v>56025.4</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AA12">
         <v>16021.4</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AB12">
         <v>52372.7</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AC12">
         <v>53914</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AD12">
         <v>68231</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AE12">
         <v>143409</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AF12">
         <v>188652</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AG12">
         <v>94577.3</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AH12">
         <v>61485.9</v>
       </c>
-      <c r="AI12" s="0" t="n">
-        <v>71752.4</v>
-      </c>
-      <c r="AJ12" s="0" t="n">
-        <v>27542.8</v>
-      </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AI12">
+        <v>71752.399999999994</v>
+      </c>
+      <c r="AJ12">
+        <v>27542.799999999999</v>
+      </c>
+      <c r="AK12">
         <v>144916</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AL12">
         <v>110185</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AM12">
         <v>19400.5</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AN12">
         <v>103575</v>
       </c>
-      <c r="AO12" s="0" t="n">
+      <c r="AO12">
         <v>373195</v>
       </c>
-      <c r="AP12" s="0" t="n">
+      <c r="AP12">
         <v>936329</v>
       </c>
-      <c r="AQ12" s="0" t="n">
+      <c r="AQ12">
         <v>301641</v>
       </c>
-      <c r="AR12" s="0" t="n">
+      <c r="AR12">
         <v>29175</v>
       </c>
-      <c r="AS12" s="0" t="n">
+      <c r="AS12">
         <v>100455</v>
       </c>
-      <c r="AT12" s="0" t="n">
+      <c r="AT12">
         <v>778127</v>
       </c>
-      <c r="AU12" s="0" t="n">
+      <c r="AU12">
         <v>40145.9</v>
       </c>
-      <c r="AV12" s="0" t="n">
+      <c r="AV12">
         <v>690715</v>
       </c>
-      <c r="AW12" s="0" t="n">
+      <c r="AW12">
         <v>777837</v>
       </c>
-      <c r="AX12" s="0" t="n">
+      <c r="AX12">
         <v>620957</v>
       </c>
-      <c r="AY12" s="0" t="n">
+      <c r="AY12">
         <v>47786.7</v>
       </c>
-      <c r="AZ12" s="0" t="n">
+      <c r="AZ12">
         <v>202443</v>
       </c>
-      <c r="BA12" s="0" t="n">
+      <c r="BA12">
         <v>239108</v>
       </c>
-      <c r="BB12" s="0" t="n">
+      <c r="BB12">
         <v>220232</v>
       </c>
-      <c r="BC12" s="0" t="n">
+      <c r="BC12">
         <v>185289</v>
       </c>
-      <c r="BD12" s="0" t="n">
+      <c r="BD12">
         <v>78821.8</v>
       </c>
-      <c r="BE12" s="0" t="n">
+      <c r="BE12">
         <v>58010.3</v>
       </c>
-      <c r="BF12" s="0" t="n">
+      <c r="BF12">
         <v>146925</v>
       </c>
-      <c r="BG12" s="0" t="n">
+      <c r="BG12">
         <v>48761.4</v>
       </c>
-      <c r="BH12" s="0" t="n">
+      <c r="BH12">
         <v>279895</v>
       </c>
-      <c r="BI12" s="0" t="n">
+      <c r="BI12">
         <v>367553</v>
       </c>
-      <c r="BJ12" s="0" t="n">
+      <c r="BJ12">
         <v>208037</v>
       </c>
-      <c r="BK12" s="0" t="n">
+      <c r="BK12">
         <v>223640</v>
       </c>
-      <c r="BL12" s="0" t="n">
+      <c r="BL12">
         <v>224739</v>
       </c>
-      <c r="BM12" s="0" t="n">
+      <c r="BM12">
         <v>478883</v>
       </c>
-      <c r="BN12" s="0" t="n">
+      <c r="BN12">
         <v>425221</v>
       </c>
-      <c r="BO12" s="0" t="n">
+      <c r="BO12">
         <v>216588</v>
       </c>
-      <c r="BP12" s="0" t="n">
+      <c r="BP12">
         <v>313513</v>
       </c>
-      <c r="BQ12" s="0" t="n">
+      <c r="BQ12">
         <v>103572</v>
       </c>
-      <c r="BR12" s="0" t="n">
+      <c r="BR12">
         <v>141480</v>
       </c>
-      <c r="BS12" s="0" t="n">
+      <c r="BS12">
         <v>437006</v>
       </c>
-      <c r="BT12" s="0" t="n">
+      <c r="BT12">
         <v>280735</v>
       </c>
-      <c r="BU12" s="0" t="n">
+      <c r="BU12">
         <v>61546.7</v>
       </c>
-      <c r="BV12" s="0" t="n">
+      <c r="BV12">
         <v>126244</v>
       </c>
-      <c r="BW12" s="0" t="n">
+      <c r="BW12">
         <v>137197</v>
       </c>
-      <c r="BX12" s="0" t="n">
+      <c r="BX12">
         <v>226894</v>
       </c>
-      <c r="BY12" s="0" t="n">
+      <c r="BY12">
         <v>266375</v>
       </c>
-      <c r="BZ12" s="0" t="n">
+      <c r="BZ12">
         <v>595583</v>
       </c>
-      <c r="CA12" s="0" t="n">
+      <c r="CA12">
         <v>510693</v>
       </c>
-      <c r="CB12" s="0" t="n">
+      <c r="CB12">
         <v>372839</v>
       </c>
-      <c r="CC12" s="0" t="n">
+      <c r="CC12">
         <v>28701</v>
       </c>
-      <c r="CD12" s="0" t="n">
+      <c r="CD12">
         <v>271660</v>
       </c>
-      <c r="CE12" s="0" t="n">
+      <c r="CE12">
         <v>437009</v>
       </c>
-      <c r="CF12" s="0" t="n">
+      <c r="CF12">
         <v>14770.6</v>
       </c>
-      <c r="CG12" s="0" t="n">
+      <c r="CG12">
         <v>259127</v>
       </c>
-      <c r="CH12" s="0" t="n">
+      <c r="CH12">
         <v>480164</v>
       </c>
-      <c r="CI12" s="0" t="n">
+      <c r="CI12">
         <v>9172.84</v>
       </c>
-      <c r="CJ12" s="0" t="n">
+      <c r="CJ12">
         <v>240030</v>
       </c>
-      <c r="CK12" s="0" t="n">
+      <c r="CK12">
         <v>988326</v>
       </c>
-      <c r="CL12" s="0" t="n">
+      <c r="CL12">
         <v>492206</v>
       </c>
-      <c r="CM12" s="0" t="n">
+      <c r="CM12">
         <v>104328</v>
       </c>
-      <c r="CN12" s="0" t="n">
+      <c r="CN12">
         <v>862082</v>
       </c>
-      <c r="CO12" s="0" t="n">
+      <c r="CO12">
         <v>295422</v>
       </c>
-      <c r="CP12" s="0" t="n">
+      <c r="CP12">
         <v>710356</v>
       </c>
-      <c r="CQ12" s="0" t="n">
+      <c r="CQ12">
         <v>717507</v>
       </c>
-      <c r="CR12" s="0" t="n">
+      <c r="CR12">
         <v>43367.3</v>
       </c>
-      <c r="CS12" s="0" t="n">
+      <c r="CS12">
         <v>749511</v>
       </c>
-      <c r="CT12" s="0" t="n">
+      <c r="CT12">
         <v>746952</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>80</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>192836</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>81636.9</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="C13">
+        <v>81636.899999999994</v>
+      </c>
+      <c r="D13">
         <v>189033</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>223997</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>229560</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13">
         <v>73960.2</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13">
         <v>10154.9</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13">
         <v>62289.1</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13">
         <v>232550</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13">
         <v>24684.1</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13">
         <v>18381</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13">
         <v>56470.9</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13">
         <v>3703.2</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13">
         <v>50002.2</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13">
         <v>61438.5</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13">
         <v>35921.4</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="R13">
         <v>14519.1</v>
       </c>
-      <c r="S13" s="0" t="n">
-        <v>20279.4</v>
-      </c>
-      <c r="T13" s="0" t="n">
+      <c r="S13">
+        <v>20279.400000000001</v>
+      </c>
+      <c r="T13">
         <v>35023.1</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="U13">
         <v>88091.6</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="V13">
         <v>83330.5</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="W13">
         <v>104626</v>
       </c>
-      <c r="X13" s="0" t="n">
-        <v>33697.2</v>
-      </c>
-      <c r="Y13" s="0" t="n">
+      <c r="X13">
+        <v>33697.199999999997</v>
+      </c>
+      <c r="Y13">
         <v>105721</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="Z13">
         <v>56100.4</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AA13">
         <v>16023.8</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AB13">
         <v>52451.8</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AC13">
         <v>53928.2</v>
       </c>
-      <c r="AD13" s="0" t="n">
-        <v>68327.2</v>
-      </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AD13">
+        <v>68327.199999999997</v>
+      </c>
+      <c r="AE13">
         <v>143482</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AF13">
         <v>188657</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AG13">
         <v>94564.5</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AH13">
         <v>61488.7</v>
       </c>
-      <c r="AI13" s="0" t="n">
-        <v>71788.9</v>
-      </c>
-      <c r="AJ13" s="0" t="n">
-        <v>27546.8</v>
-      </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AI13">
+        <v>71788.899999999994</v>
+      </c>
+      <c r="AJ13">
+        <v>27546.799999999999</v>
+      </c>
+      <c r="AK13">
         <v>144912</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AL13">
         <v>110266</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AM13">
         <v>19419.7</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AN13">
         <v>103642</v>
       </c>
-      <c r="AO13" s="0" t="n">
+      <c r="AO13">
         <v>373574</v>
       </c>
-      <c r="AP13" s="0" t="n">
+      <c r="AP13">
         <v>936419</v>
       </c>
-      <c r="AQ13" s="0" t="n">
+      <c r="AQ13">
         <v>302003</v>
       </c>
-      <c r="AR13" s="0" t="n">
+      <c r="AR13">
         <v>29181</v>
       </c>
-      <c r="AS13" s="0" t="n">
+      <c r="AS13">
         <v>100505</v>
       </c>
-      <c r="AT13" s="0" t="n">
+      <c r="AT13">
         <v>778555</v>
       </c>
-      <c r="AU13" s="0" t="n">
-        <v>40156.7</v>
-      </c>
-      <c r="AV13" s="0" t="n">
+      <c r="AU13">
+        <v>40156.699999999997</v>
+      </c>
+      <c r="AV13">
         <v>692014</v>
       </c>
-      <c r="AW13" s="0" t="n">
+      <c r="AW13">
         <v>778600</v>
       </c>
-      <c r="AX13" s="0" t="n">
+      <c r="AX13">
         <v>621762</v>
       </c>
-      <c r="AY13" s="0" t="n">
+      <c r="AY13">
         <v>47869.4</v>
       </c>
-      <c r="AZ13" s="0" t="n">
+      <c r="AZ13">
         <v>202799</v>
       </c>
-      <c r="BA13" s="0" t="n">
+      <c r="BA13">
         <v>239178</v>
       </c>
-      <c r="BB13" s="0" t="n">
+      <c r="BB13">
         <v>220425</v>
       </c>
-      <c r="BC13" s="0" t="n">
+      <c r="BC13">
         <v>185574</v>
       </c>
-      <c r="BD13" s="0" t="n">
-        <v>79172.6</v>
-      </c>
-      <c r="BE13" s="0" t="n">
+      <c r="BD13">
+        <v>79172.600000000006</v>
+      </c>
+      <c r="BE13">
         <v>58201.4</v>
       </c>
-      <c r="BF13" s="0" t="n">
+      <c r="BF13">
         <v>147337</v>
       </c>
-      <c r="BG13" s="0" t="n">
+      <c r="BG13">
         <v>48875.3</v>
       </c>
-      <c r="BH13" s="0" t="n">
+      <c r="BH13">
         <v>280527</v>
       </c>
-      <c r="BI13" s="0" t="n">
+      <c r="BI13">
         <v>368181</v>
       </c>
-      <c r="BJ13" s="0" t="n">
+      <c r="BJ13">
         <v>208532</v>
       </c>
-      <c r="BK13" s="0" t="n">
+      <c r="BK13">
         <v>224269</v>
       </c>
-      <c r="BL13" s="0" t="n">
+      <c r="BL13">
         <v>225191</v>
       </c>
-      <c r="BM13" s="0" t="n">
+      <c r="BM13">
         <v>478982</v>
       </c>
-      <c r="BN13" s="0" t="n">
+      <c r="BN13">
         <v>425389</v>
       </c>
-      <c r="BO13" s="0" t="n">
+      <c r="BO13">
         <v>217218</v>
       </c>
-      <c r="BP13" s="0" t="n">
+      <c r="BP13">
         <v>314327</v>
       </c>
-      <c r="BQ13" s="0" t="n">
+      <c r="BQ13">
         <v>103847</v>
       </c>
-      <c r="BR13" s="0" t="n">
+      <c r="BR13">
         <v>141647</v>
       </c>
-      <c r="BS13" s="0" t="n">
+      <c r="BS13">
         <v>438265</v>
       </c>
-      <c r="BT13" s="0" t="n">
+      <c r="BT13">
         <v>281775</v>
       </c>
-      <c r="BU13" s="0" t="n">
+      <c r="BU13">
         <v>61591.7</v>
       </c>
-      <c r="BV13" s="0" t="n">
+      <c r="BV13">
         <v>126841</v>
       </c>
-      <c r="BW13" s="0" t="n">
+      <c r="BW13">
         <v>137339</v>
       </c>
-      <c r="BX13" s="0" t="n">
+      <c r="BX13">
         <v>227421</v>
       </c>
-      <c r="BY13" s="0" t="n">
+      <c r="BY13">
         <v>266860</v>
       </c>
-      <c r="BZ13" s="0" t="n">
+      <c r="BZ13">
         <v>596138</v>
       </c>
-      <c r="CA13" s="0" t="n">
+      <c r="CA13">
         <v>511469</v>
       </c>
-      <c r="CB13" s="0" t="n">
+      <c r="CB13">
         <v>374192</v>
       </c>
-      <c r="CC13" s="0" t="n">
+      <c r="CC13">
         <v>28731.1</v>
       </c>
-      <c r="CD13" s="0" t="n">
+      <c r="CD13">
         <v>273560</v>
       </c>
-      <c r="CE13" s="0" t="n">
+      <c r="CE13">
         <v>438044</v>
       </c>
-      <c r="CF13" s="0" t="n">
+      <c r="CF13">
         <v>14774.1</v>
       </c>
-      <c r="CG13" s="0" t="n">
+      <c r="CG13">
         <v>261293</v>
       </c>
-      <c r="CH13" s="0" t="n">
+      <c r="CH13">
         <v>480889</v>
       </c>
-      <c r="CI13" s="0" t="n">
+      <c r="CI13">
         <v>9171.26</v>
       </c>
-      <c r="CJ13" s="0" t="n">
+      <c r="CJ13">
         <v>242279</v>
       </c>
-      <c r="CK13" s="0" t="n">
+      <c r="CK13">
         <v>988990</v>
       </c>
-      <c r="CL13" s="0" t="n">
+      <c r="CL13">
         <v>496468</v>
       </c>
-      <c r="CM13" s="0" t="n">
+      <c r="CM13">
         <v>104592</v>
       </c>
-      <c r="CN13" s="0" t="n">
+      <c r="CN13">
         <v>864292</v>
       </c>
-      <c r="CO13" s="0" t="n">
+      <c r="CO13">
         <v>298497</v>
       </c>
-      <c r="CP13" s="0" t="n">
+      <c r="CP13">
         <v>713015</v>
       </c>
-      <c r="CQ13" s="0" t="n">
+      <c r="CQ13">
         <v>719440</v>
       </c>
-      <c r="CR13" s="0" t="n">
+      <c r="CR13">
         <v>43382.9</v>
       </c>
-      <c r="CS13" s="0" t="n">
+      <c r="CS13">
         <v>752858</v>
       </c>
-      <c r="CT13" s="0" t="n">
+      <c r="CT13">
         <v>749448</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>90</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>192948</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>81635.4</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="C14">
+        <v>81635.399999999994</v>
+      </c>
+      <c r="D14">
         <v>189098</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>224104</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>229583</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <v>73966.1</v>
-      </c>
-      <c r="H14" s="0" t="n">
+      <c r="G14">
+        <v>73966.100000000006</v>
+      </c>
+      <c r="H14">
         <v>10154.9</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>62293.6</v>
-      </c>
-      <c r="J14" s="0" t="n">
+      <c r="I14">
+        <v>62293.599999999999</v>
+      </c>
+      <c r="J14">
         <v>232552</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14">
         <v>24709.1</v>
       </c>
-      <c r="L14" s="0" t="n">
-        <v>18380.9</v>
-      </c>
-      <c r="M14" s="0" t="n">
+      <c r="L14">
+        <v>18380.900000000001</v>
+      </c>
+      <c r="M14">
         <v>56482.6</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14">
         <v>3703.2</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14">
         <v>50026</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14">
         <v>61449.9</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14">
         <v>35947.1</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14">
         <v>14522.3</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="S14">
         <v>20282.7</v>
       </c>
-      <c r="T14" s="0" t="n">
-        <v>35052.3</v>
-      </c>
-      <c r="U14" s="0" t="n">
+      <c r="T14">
+        <v>35052.300000000003</v>
+      </c>
+      <c r="U14">
         <v>88151.6</v>
       </c>
-      <c r="V14" s="0" t="n">
-        <v>83339.2</v>
-      </c>
-      <c r="W14" s="0" t="n">
+      <c r="V14">
+        <v>83339.199999999997</v>
+      </c>
+      <c r="W14">
         <v>104657</v>
       </c>
-      <c r="X14" s="0" t="n">
-        <v>33693.6</v>
-      </c>
-      <c r="Y14" s="0" t="n">
+      <c r="X14">
+        <v>33693.599999999999</v>
+      </c>
+      <c r="Y14">
         <v>105760</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="Z14">
         <v>56105.4</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AA14">
         <v>16031.5</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AB14">
         <v>52526.3</v>
       </c>
-      <c r="AC14" s="0" t="n">
-        <v>53965.6</v>
-      </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AC14">
+        <v>53965.599999999999</v>
+      </c>
+      <c r="AD14">
         <v>68401.8</v>
       </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AE14">
         <v>143531</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AF14">
         <v>188657</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AG14">
         <v>94569.4</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AH14">
         <v>61494.1</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AI14">
         <v>71838.5</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AJ14">
         <v>27550.1</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AK14">
         <v>144892</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AL14">
         <v>110408</v>
       </c>
-      <c r="AM14" s="0" t="n">
+      <c r="AM14">
         <v>19413.2</v>
       </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AN14">
         <v>103723</v>
       </c>
-      <c r="AO14" s="0" t="n">
+      <c r="AO14">
         <v>374392</v>
       </c>
-      <c r="AP14" s="0" t="n">
+      <c r="AP14">
         <v>936484</v>
       </c>
-      <c r="AQ14" s="0" t="n">
+      <c r="AQ14">
         <v>302110</v>
       </c>
-      <c r="AR14" s="0" t="n">
+      <c r="AR14">
         <v>29180.5</v>
       </c>
-      <c r="AS14" s="0" t="n">
+      <c r="AS14">
         <v>100498</v>
       </c>
-      <c r="AT14" s="0" t="n">
+      <c r="AT14">
         <v>779024</v>
       </c>
-      <c r="AU14" s="0" t="n">
-        <v>40180.7</v>
-      </c>
-      <c r="AV14" s="0" t="n">
+      <c r="AU14">
+        <v>40180.699999999997</v>
+      </c>
+      <c r="AV14">
         <v>692987</v>
       </c>
-      <c r="AW14" s="0" t="n">
+      <c r="AW14">
         <v>779003</v>
       </c>
-      <c r="AX14" s="0" t="n">
+      <c r="AX14">
         <v>622088</v>
       </c>
-      <c r="AY14" s="0" t="n">
+      <c r="AY14">
         <v>47931.8</v>
       </c>
-      <c r="AZ14" s="0" t="n">
+      <c r="AZ14">
         <v>202959</v>
       </c>
-      <c r="BA14" s="0" t="n">
+      <c r="BA14">
         <v>239226</v>
       </c>
-      <c r="BB14" s="0" t="n">
+      <c r="BB14">
         <v>220553</v>
       </c>
-      <c r="BC14" s="0" t="n">
+      <c r="BC14">
         <v>185779</v>
       </c>
-      <c r="BD14" s="0" t="n">
+      <c r="BD14">
         <v>79313.3</v>
       </c>
-      <c r="BE14" s="0" t="n">
+      <c r="BE14">
         <v>58310.6</v>
       </c>
-      <c r="BF14" s="0" t="n">
+      <c r="BF14">
         <v>147711</v>
       </c>
-      <c r="BG14" s="0" t="n">
+      <c r="BG14">
         <v>48932.3</v>
       </c>
-      <c r="BH14" s="0" t="n">
+      <c r="BH14">
         <v>281225</v>
       </c>
-      <c r="BI14" s="0" t="n">
+      <c r="BI14">
         <v>368614</v>
       </c>
-      <c r="BJ14" s="0" t="n">
+      <c r="BJ14">
         <v>209058</v>
       </c>
-      <c r="BK14" s="0" t="n">
+      <c r="BK14">
         <v>224957</v>
       </c>
-      <c r="BL14" s="0" t="n">
+      <c r="BL14">
         <v>225604</v>
       </c>
-      <c r="BM14" s="0" t="n">
+      <c r="BM14">
         <v>478991</v>
       </c>
-      <c r="BN14" s="0" t="n">
+      <c r="BN14">
         <v>425636</v>
       </c>
-      <c r="BO14" s="0" t="n">
+      <c r="BO14">
         <v>217657</v>
       </c>
-      <c r="BP14" s="0" t="n">
+      <c r="BP14">
         <v>315002</v>
       </c>
-      <c r="BQ14" s="0" t="n">
+      <c r="BQ14">
         <v>103979</v>
       </c>
-      <c r="BR14" s="0" t="n">
+      <c r="BR14">
         <v>141956</v>
       </c>
-      <c r="BS14" s="0" t="n">
+      <c r="BS14">
         <v>439115</v>
       </c>
-      <c r="BT14" s="0" t="n">
+      <c r="BT14">
         <v>282622</v>
       </c>
-      <c r="BU14" s="0" t="n">
+      <c r="BU14">
         <v>61613.4</v>
       </c>
-      <c r="BV14" s="0" t="n">
+      <c r="BV14">
         <v>127000</v>
       </c>
-      <c r="BW14" s="0" t="n">
+      <c r="BW14">
         <v>137424</v>
       </c>
-      <c r="BX14" s="0" t="n">
+      <c r="BX14">
         <v>227836</v>
       </c>
-      <c r="BY14" s="0" t="n">
+      <c r="BY14">
         <v>267224</v>
       </c>
-      <c r="BZ14" s="0" t="n">
+      <c r="BZ14">
         <v>596522</v>
       </c>
-      <c r="CA14" s="0" t="n">
+      <c r="CA14">
         <v>511923</v>
       </c>
-      <c r="CB14" s="0" t="n">
+      <c r="CB14">
         <v>375673</v>
       </c>
-      <c r="CC14" s="0" t="n">
+      <c r="CC14">
         <v>28766</v>
       </c>
-      <c r="CD14" s="0" t="n">
+      <c r="CD14">
         <v>274686</v>
       </c>
-      <c r="CE14" s="0" t="n">
+      <c r="CE14">
         <v>439059</v>
       </c>
-      <c r="CF14" s="0" t="n">
+      <c r="CF14">
         <v>14777.1</v>
       </c>
-      <c r="CG14" s="0" t="n">
+      <c r="CG14">
         <v>263008</v>
       </c>
-      <c r="CH14" s="0" t="n">
+      <c r="CH14">
         <v>481455</v>
       </c>
-      <c r="CI14" s="0" t="n">
-        <v>9174.7</v>
-      </c>
-      <c r="CJ14" s="0" t="n">
+      <c r="CI14">
+        <v>9174.7000000000007</v>
+      </c>
+      <c r="CJ14">
         <v>244062</v>
       </c>
-      <c r="CK14" s="0" t="n">
+      <c r="CK14">
         <v>989574</v>
       </c>
-      <c r="CL14" s="0" t="n">
+      <c r="CL14">
         <v>499841</v>
       </c>
-      <c r="CM14" s="0" t="n">
+      <c r="CM14">
         <v>104673</v>
       </c>
-      <c r="CN14" s="0" t="n">
+      <c r="CN14">
         <v>865696</v>
       </c>
-      <c r="CO14" s="0" t="n">
+      <c r="CO14">
         <v>300412</v>
       </c>
-      <c r="CP14" s="0" t="n">
+      <c r="CP14">
         <v>715220</v>
       </c>
-      <c r="CQ14" s="0" t="n">
+      <c r="CQ14">
         <v>720941</v>
       </c>
-      <c r="CR14" s="0" t="n">
+      <c r="CR14">
         <v>43386.7</v>
       </c>
-      <c r="CS14" s="0" t="n">
+      <c r="CS14">
         <v>754598</v>
       </c>
-      <c r="CT14" s="0" t="n">
+      <c r="CT14">
         <v>750856</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>100</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>192975</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>81641.3</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>189162</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>224189</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>229585</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>73991.5</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
         <v>10154.9</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <v>62289.6</v>
-      </c>
-      <c r="J15" s="0" t="n">
+      <c r="I15">
+        <v>62289.599999999999</v>
+      </c>
+      <c r="J15">
         <v>232572</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15">
         <v>24729.5</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15">
         <v>18382.8</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15">
         <v>56493.1</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15">
         <v>3703.2</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15">
         <v>50077.8</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15">
         <v>61451.4</v>
       </c>
-      <c r="Q15" s="0" t="n">
-        <v>35971.6</v>
-      </c>
-      <c r="R15" s="0" t="n">
+      <c r="Q15">
+        <v>35971.599999999999</v>
+      </c>
+      <c r="R15">
         <v>14528.2</v>
       </c>
-      <c r="S15" s="0" t="n">
-        <v>20289.4</v>
-      </c>
-      <c r="T15" s="0" t="n">
-        <v>35073.3</v>
-      </c>
-      <c r="U15" s="0" t="n">
+      <c r="S15">
+        <v>20289.400000000001</v>
+      </c>
+      <c r="T15">
+        <v>35073.300000000003</v>
+      </c>
+      <c r="U15">
         <v>88195.5</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="V15">
         <v>83363</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="W15">
         <v>104674</v>
       </c>
-      <c r="X15" s="0" t="n">
-        <v>33684.2</v>
-      </c>
-      <c r="Y15" s="0" t="n">
+      <c r="X15">
+        <v>33684.199999999997</v>
+      </c>
+      <c r="Y15">
         <v>105760</v>
       </c>
-      <c r="Z15" s="0" t="n">
-        <v>56123.2</v>
-      </c>
-      <c r="AA15" s="0" t="n">
+      <c r="Z15">
+        <v>56123.199999999997</v>
+      </c>
+      <c r="AA15">
         <v>16040.6</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AB15">
         <v>52535.1</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AC15">
         <v>53964</v>
       </c>
-      <c r="AD15" s="0" t="n">
-        <v>68468.1</v>
-      </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AD15">
+        <v>68468.100000000006</v>
+      </c>
+      <c r="AE15">
         <v>143555</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AF15">
         <v>188657</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AG15">
         <v>94679.5</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AH15">
         <v>61561.5</v>
       </c>
-      <c r="AI15" s="0" t="n">
-        <v>71896.1</v>
-      </c>
-      <c r="AJ15" s="0" t="n">
-        <v>27565.6</v>
-      </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AI15">
+        <v>71896.100000000006</v>
+      </c>
+      <c r="AJ15">
+        <v>27565.599999999999</v>
+      </c>
+      <c r="AK15">
         <v>144945</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AL15">
         <v>110542</v>
       </c>
-      <c r="AM15" s="0" t="n">
+      <c r="AM15">
         <v>19419</v>
       </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AN15">
         <v>103743</v>
       </c>
-      <c r="AO15" s="0" t="n">
+      <c r="AO15">
         <v>375031</v>
       </c>
-      <c r="AP15" s="0" t="n">
+      <c r="AP15">
         <v>936531</v>
       </c>
-      <c r="AQ15" s="0" t="n">
+      <c r="AQ15">
         <v>302452</v>
       </c>
-      <c r="AR15" s="0" t="n">
+      <c r="AR15">
         <v>29203.7</v>
       </c>
-      <c r="AS15" s="0" t="n">
+      <c r="AS15">
         <v>100514</v>
       </c>
-      <c r="AT15" s="0" t="n">
+      <c r="AT15">
         <v>779113</v>
       </c>
-      <c r="AU15" s="0" t="n">
+      <c r="AU15">
         <v>40194.9</v>
       </c>
-      <c r="AV15" s="0" t="n">
+      <c r="AV15">
         <v>693305</v>
       </c>
-      <c r="AW15" s="0" t="n">
+      <c r="AW15">
         <v>779359</v>
       </c>
-      <c r="AX15" s="0" t="n">
+      <c r="AX15">
         <v>622413</v>
       </c>
-      <c r="AY15" s="0" t="n">
+      <c r="AY15">
         <v>47981</v>
       </c>
-      <c r="AZ15" s="0" t="n">
+      <c r="AZ15">
         <v>203099</v>
       </c>
-      <c r="BA15" s="0" t="n">
+      <c r="BA15">
         <v>239245</v>
       </c>
-      <c r="BB15" s="0" t="n">
+      <c r="BB15">
         <v>220724</v>
       </c>
-      <c r="BC15" s="0" t="n">
+      <c r="BC15">
         <v>185943</v>
       </c>
-      <c r="BD15" s="0" t="n">
+      <c r="BD15">
         <v>79424.5</v>
       </c>
-      <c r="BE15" s="0" t="n">
+      <c r="BE15">
         <v>58364.2</v>
       </c>
-      <c r="BF15" s="0" t="n">
+      <c r="BF15">
         <v>147914</v>
       </c>
-      <c r="BG15" s="0" t="n">
+      <c r="BG15">
         <v>48982.8</v>
       </c>
-      <c r="BH15" s="0" t="n">
+      <c r="BH15">
         <v>281677</v>
       </c>
-      <c r="BI15" s="0" t="n">
+      <c r="BI15">
         <v>369024</v>
       </c>
-      <c r="BJ15" s="0" t="n">
+      <c r="BJ15">
         <v>209377</v>
       </c>
-      <c r="BK15" s="0" t="n">
+      <c r="BK15">
         <v>225289</v>
       </c>
-      <c r="BL15" s="0" t="n">
+      <c r="BL15">
         <v>225869</v>
       </c>
-      <c r="BM15" s="0" t="n">
+      <c r="BM15">
         <v>479039</v>
       </c>
-      <c r="BN15" s="0" t="n">
+      <c r="BN15">
         <v>425768</v>
       </c>
-      <c r="BO15" s="0" t="n">
+      <c r="BO15">
         <v>218123</v>
       </c>
-      <c r="BP15" s="0" t="n">
+      <c r="BP15">
         <v>315253</v>
       </c>
-      <c r="BQ15" s="0" t="n">
+      <c r="BQ15">
         <v>104110</v>
       </c>
-      <c r="BR15" s="0" t="n">
+      <c r="BR15">
         <v>142039</v>
       </c>
-      <c r="BS15" s="0" t="n">
+      <c r="BS15">
         <v>439482</v>
       </c>
-      <c r="BT15" s="0" t="n">
+      <c r="BT15">
         <v>283241</v>
       </c>
-      <c r="BU15" s="0" t="n">
+      <c r="BU15">
         <v>61605.9</v>
       </c>
-      <c r="BV15" s="0" t="n">
+      <c r="BV15">
         <v>127029</v>
       </c>
-      <c r="BW15" s="0" t="n">
+      <c r="BW15">
         <v>137458</v>
       </c>
-      <c r="BX15" s="0" t="n">
+      <c r="BX15">
         <v>228081</v>
       </c>
-      <c r="BY15" s="0" t="n">
+      <c r="BY15">
         <v>267388</v>
       </c>
-      <c r="BZ15" s="0" t="n">
+      <c r="BZ15">
         <v>596574</v>
       </c>
-      <c r="CA15" s="0" t="n">
+      <c r="CA15">
         <v>512266</v>
       </c>
-      <c r="CB15" s="0" t="n">
+      <c r="CB15">
         <v>376494</v>
       </c>
-      <c r="CC15" s="0" t="n">
+      <c r="CC15">
         <v>28788.7</v>
       </c>
-      <c r="CD15" s="0" t="n">
+      <c r="CD15">
         <v>275573</v>
       </c>
-      <c r="CE15" s="0" t="n">
+      <c r="CE15">
         <v>439862</v>
       </c>
-      <c r="CF15" s="0" t="n">
+      <c r="CF15">
         <v>14777.8</v>
       </c>
-      <c r="CG15" s="0" t="n">
+      <c r="CG15">
         <v>263938</v>
       </c>
-      <c r="CH15" s="0" t="n">
+      <c r="CH15">
         <v>481905</v>
       </c>
-      <c r="CI15" s="0" t="n">
+      <c r="CI15">
         <v>9176.36</v>
       </c>
-      <c r="CJ15" s="0" t="n">
+      <c r="CJ15">
         <v>245377</v>
       </c>
-      <c r="CK15" s="0" t="n">
+      <c r="CK15">
         <v>990137</v>
       </c>
-      <c r="CL15" s="0" t="n">
+      <c r="CL15">
         <v>501953</v>
       </c>
-      <c r="CM15" s="0" t="n">
+      <c r="CM15">
         <v>104754</v>
       </c>
-      <c r="CN15" s="0" t="n">
+      <c r="CN15">
         <v>866729</v>
       </c>
-      <c r="CO15" s="0" t="n">
+      <c r="CO15">
         <v>301858</v>
       </c>
-      <c r="CP15" s="0" t="n">
+      <c r="CP15">
         <v>716621</v>
       </c>
-      <c r="CQ15" s="0" t="n">
+      <c r="CQ15">
         <v>722726</v>
       </c>
-      <c r="CR15" s="0" t="n">
+      <c r="CR15">
         <v>43401.7</v>
       </c>
-      <c r="CS15" s="0" t="n">
+      <c r="CS15">
         <v>756135</v>
       </c>
-      <c r="CT15" s="0" t="n">
+      <c r="CT15">
         <v>751915</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
